--- a/20.開発/50.画面/20.画面定義書/【eternal】画面定義書(検索結果画面).xlsx
+++ b/20.開発/50.画面/20.画面定義書/【eternal】画面定義書(検索結果画面).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEF46E8-EFE2-4369-9415-6855392A7937}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EFD3E2-5AC2-4013-9932-21EE9022C170}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="21060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'画面仕様(検索結果画面)'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面仕様(検索結果画面)'!$A$1:$BV$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面仕様(検索結果画面)'!$A$1:$BV$71</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AZ$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$26</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'画面仕様(検索結果画面)'!$1:$4</definedName>
@@ -27,7 +27,7 @@
     <definedName name="版" localSheetId="2">[1]変更履歴!$B$5:$B$25</definedName>
     <definedName name="版">変更履歴!$B$5:$B$25</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="116">
   <si>
     <t>Confidential</t>
     <phoneticPr fontId="6"/>
@@ -660,19 +660,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>関連度順</t>
-    <rPh sb="0" eb="2">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ジュン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>高評価順</t>
     <rPh sb="0" eb="3">
       <t>コウヒョウカ</t>
@@ -950,6 +937,73 @@
   </si>
   <si>
     <t>トークテーマのタイトルまたはサムネイルをクリック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0.0.2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>柴</t>
+    <rPh sb="0" eb="1">
+      <t>シバ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トーク数</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>100トーク</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トーク数を表示する</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索条件エリアの関連度順を削除
+トーク数を表示項目に追加</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -963,7 +1017,7 @@
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1115,6 +1169,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="メイリオ"/>
       <family val="3"/>
@@ -1346,7 +1407,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1551,9 +1612,6 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1572,6 +1630,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1617,6 +1705,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1626,19 +1717,16 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1646,12 +1734,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2449,7 +2531,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>2019年2月1日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2521,7 +2603,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>柴</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -3079,30 +3161,30 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="80"/>
-      <c r="Y13" s="80"/>
-      <c r="Z13" s="80"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
     </row>
     <row r="21" spans="2:51" ht="3" customHeight="1">
       <c r="B21" s="4"/>
@@ -3162,33 +3244,33 @@
       </c>
     </row>
     <row r="27" spans="2:51">
-      <c r="AO27" s="77">
+      <c r="AO27" s="86">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
-        <v>43429</v>
-      </c>
-      <c r="AP27" s="78"/>
-      <c r="AQ27" s="78"/>
-      <c r="AR27" s="78"/>
-      <c r="AS27" s="78"/>
-      <c r="AT27" s="78"/>
-      <c r="AU27" s="78"/>
-      <c r="AV27" s="78"/>
-      <c r="AW27" s="78"/>
-      <c r="AX27" s="78"/>
-      <c r="AY27" s="78"/>
+        <v>43497</v>
+      </c>
+      <c r="AP27" s="87"/>
+      <c r="AQ27" s="87"/>
+      <c r="AR27" s="87"/>
+      <c r="AS27" s="87"/>
+      <c r="AT27" s="87"/>
+      <c r="AU27" s="87"/>
+      <c r="AV27" s="87"/>
+      <c r="AW27" s="87"/>
+      <c r="AX27" s="87"/>
+      <c r="AY27" s="87"/>
     </row>
     <row r="28" spans="2:51">
-      <c r="AR28" s="79" t="str">
+      <c r="AR28" s="88" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
-        <v>0.0.1</v>
-      </c>
-      <c r="AS28" s="79"/>
-      <c r="AT28" s="79"/>
-      <c r="AU28" s="79"/>
-      <c r="AV28" s="79"/>
-      <c r="AW28" s="79"/>
-      <c r="AX28" s="79"/>
-      <c r="AY28" s="79"/>
+        <v>0.0.2</v>
+      </c>
+      <c r="AS28" s="88"/>
+      <c r="AT28" s="88"/>
+      <c r="AU28" s="88"/>
+      <c r="AV28" s="88"/>
+      <c r="AW28" s="88"/>
+      <c r="AX28" s="88"/>
+      <c r="AY28" s="88"/>
     </row>
     <row r="31" spans="2:51">
       <c r="AR31" s="6"/>
@@ -3259,11 +3341,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="36"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
+    <row r="6" spans="2:5" ht="37.5">
+      <c r="B6" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="9">
+        <v>43497</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="36"/>
@@ -3391,7 +3481,7 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:EK69"/>
+  <dimension ref="B1:EK70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -3442,8 +3532,12 @@
       <c r="CA3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="CB3" s="14"/>
-      <c r="CC3" s="13"/>
+      <c r="CB3" s="14">
+        <v>43497</v>
+      </c>
+      <c r="CC3" s="13" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="4" spans="2:141" ht="18" customHeight="1"/>
     <row r="5" spans="2:141">
@@ -3537,7 +3631,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="18"/>
       <c r="D8" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -4036,11 +4130,11 @@
       <c r="BN15" s="67"/>
       <c r="BO15" s="68"/>
       <c r="BP15" s="27"/>
-      <c r="BQ15" s="92" t="s">
+      <c r="BQ15" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="BR15" s="93"/>
-      <c r="BS15" s="94"/>
+      <c r="BR15" s="103"/>
+      <c r="BS15" s="104"/>
       <c r="BT15" s="61"/>
       <c r="BU15" s="20"/>
       <c r="EE15" s="19"/>
@@ -4229,17 +4323,17 @@
     </row>
     <row r="19" spans="3:141">
       <c r="C19" s="24"/>
-      <c r="D19" s="72"/>
+      <c r="D19" s="71"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
       <c r="O19" s="19"/>
       <c r="R19" s="54"/>
       <c r="S19" s="16"/>
@@ -4304,22 +4398,22 @@
     </row>
     <row r="20" spans="3:141" ht="22.5">
       <c r="C20" s="24"/>
-      <c r="D20" s="72"/>
+      <c r="D20" s="71"/>
       <c r="E20" s="60" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
       <c r="O20" s="19"/>
       <c r="R20" s="18"/>
-      <c r="U20" s="71" t="s">
+      <c r="U20" s="70" t="s">
         <v>40</v>
       </c>
       <c r="V20" s="19"/>
@@ -4328,7 +4422,7 @@
       <c r="Y20" s="19"/>
       <c r="Z20" s="19"/>
       <c r="AB20" s="18"/>
-      <c r="AE20" s="71" t="s">
+      <c r="AE20" s="70" t="s">
         <v>40</v>
       </c>
       <c r="AF20" s="19"/>
@@ -4337,7 +4431,7 @@
       <c r="AI20" s="19"/>
       <c r="AJ20" s="19"/>
       <c r="AL20" s="18"/>
-      <c r="AO20" s="71" t="s">
+      <c r="AO20" s="70" t="s">
         <v>40</v>
       </c>
       <c r="AP20" s="19"/>
@@ -4346,7 +4440,7 @@
       <c r="AS20" s="19"/>
       <c r="AT20" s="19"/>
       <c r="AV20" s="18"/>
-      <c r="AY20" s="71" t="s">
+      <c r="AY20" s="70" t="s">
         <v>40</v>
       </c>
       <c r="AZ20" s="19"/>
@@ -4381,17 +4475,17 @@
     </row>
     <row r="21" spans="3:141">
       <c r="C21" s="24"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
       <c r="O21" s="19"/>
       <c r="R21" s="18"/>
       <c r="S21" s="19"/>
@@ -4456,19 +4550,19 @@
     </row>
     <row r="22" spans="3:141">
       <c r="C22" s="24"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="72"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="71"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
       <c r="O22" s="19"/>
       <c r="R22" s="21"/>
       <c r="S22" s="22"/>
@@ -4533,19 +4627,19 @@
     </row>
     <row r="23" spans="3:141">
       <c r="C23" s="24"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="75" t="s">
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
       <c r="R23" s="12" t="s">
         <v>39</v>
       </c>
@@ -4579,43 +4673,35 @@
     </row>
     <row r="24" spans="3:141">
       <c r="C24" s="24"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="75" t="s">
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="R24" s="70" t="s">
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="R24" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="U24" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB24" s="70" t="s">
+      <c r="U24" s="69"/>
+      <c r="AB24" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="AE24" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL24" s="70" t="s">
+      <c r="AE24" s="69"/>
+      <c r="AL24" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="AO24" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="AV24" s="70" t="s">
+      <c r="AO24" s="69"/>
+      <c r="AV24" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="AY24" s="69" t="s">
-        <v>37</v>
-      </c>
+      <c r="AY24" s="69"/>
       <c r="BC24" s="19"/>
       <c r="BD24" s="19"/>
       <c r="BE24" s="19"/>
@@ -4637,19 +4723,51 @@
     </row>
     <row r="25" spans="3:141">
       <c r="C25" s="24"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="75" t="s">
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="R25" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="S25" s="85"/>
+      <c r="T25" s="85"/>
+      <c r="U25" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB25" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC25" s="85"/>
+      <c r="AD25" s="85"/>
+      <c r="AE25" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL25" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM25" s="85"/>
+      <c r="AN25" s="85"/>
+      <c r="AO25" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV25" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW25" s="85"/>
+      <c r="AX25" s="85"/>
+      <c r="AY25" s="85" t="s">
+        <v>37</v>
+      </c>
       <c r="BC25" s="19"/>
       <c r="BD25" s="19"/>
       <c r="BE25" s="19"/>
@@ -4671,19 +4789,19 @@
     </row>
     <row r="26" spans="3:141">
       <c r="C26" s="24"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="75" t="s">
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
       <c r="BC26" s="19"/>
       <c r="BD26" s="19"/>
       <c r="BE26" s="19"/>
@@ -4705,17 +4823,17 @@
     </row>
     <row r="27" spans="3:141">
       <c r="C27" s="24"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
       <c r="R27" s="54"/>
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
@@ -4773,25 +4891,25 @@
     </row>
     <row r="28" spans="3:141">
       <c r="C28" s="24"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72" t="s">
+      <c r="D28" s="71"/>
+      <c r="E28" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="102" t="s">
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="74" t="s">
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="N28" s="72"/>
+      <c r="N28" s="71"/>
       <c r="R28" s="18"/>
-      <c r="U28" s="71" t="s">
+      <c r="U28" s="70" t="s">
         <v>40</v>
       </c>
       <c r="V28" s="19"/>
@@ -4800,7 +4918,7 @@
       <c r="Y28" s="19"/>
       <c r="Z28" s="19"/>
       <c r="AB28" s="18"/>
-      <c r="AE28" s="71" t="s">
+      <c r="AE28" s="70" t="s">
         <v>40</v>
       </c>
       <c r="AF28" s="19"/>
@@ -4809,7 +4927,7 @@
       <c r="AI28" s="19"/>
       <c r="AJ28" s="19"/>
       <c r="AL28" s="18"/>
-      <c r="AO28" s="71" t="s">
+      <c r="AO28" s="70" t="s">
         <v>40</v>
       </c>
       <c r="AP28" s="19"/>
@@ -4818,7 +4936,7 @@
       <c r="AS28" s="19"/>
       <c r="AT28" s="19"/>
       <c r="AV28" s="18"/>
-      <c r="AY28" s="71" t="s">
+      <c r="AY28" s="70" t="s">
         <v>40</v>
       </c>
       <c r="AZ28" s="19"/>
@@ -4847,17 +4965,17 @@
     </row>
     <row r="29" spans="3:141">
       <c r="C29" s="24"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
       <c r="R29" s="18"/>
       <c r="S29" s="19"/>
       <c r="T29" s="19"/>
@@ -4915,19 +5033,19 @@
     </row>
     <row r="30" spans="3:141">
       <c r="C30" s="24"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="102" t="s">
+      <c r="D30" s="71"/>
+      <c r="E30" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="71"/>
       <c r="R30" s="21"/>
       <c r="S30" s="22"/>
       <c r="T30" s="22"/>
@@ -4985,17 +5103,17 @@
     </row>
     <row r="31" spans="3:141">
       <c r="C31" s="24"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
       <c r="R31" s="12" t="s">
         <v>39</v>
       </c>
@@ -5029,45 +5147,37 @@
     </row>
     <row r="32" spans="3:141">
       <c r="C32" s="24"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103" t="s">
+      <c r="D32" s="84"/>
+      <c r="E32" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="F32" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="R32" s="70" t="s">
+      <c r="F32" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="R32" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="U32" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB32" s="70" t="s">
+      <c r="U32" s="69"/>
+      <c r="AB32" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="AE32" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL32" s="70" t="s">
+      <c r="AE32" s="69"/>
+      <c r="AL32" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="AO32" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="AV32" s="70" t="s">
+      <c r="AO32" s="69"/>
+      <c r="AV32" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="AY32" s="69" t="s">
-        <v>37</v>
-      </c>
+      <c r="AY32" s="69"/>
       <c r="BC32" s="19"/>
       <c r="BD32" s="19"/>
       <c r="BE32" s="19"/>
@@ -5089,21 +5199,53 @@
     </row>
     <row r="33" spans="2:141">
       <c r="C33" s="24"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="103" t="s">
+      <c r="D33" s="71"/>
+      <c r="E33" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
+      <c r="F33" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="R33" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="S33" s="85"/>
+      <c r="T33" s="85"/>
+      <c r="U33" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB33" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC33" s="85"/>
+      <c r="AD33" s="85"/>
+      <c r="AE33" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL33" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM33" s="85"/>
+      <c r="AN33" s="85"/>
+      <c r="AO33" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV33" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW33" s="85"/>
+      <c r="AX33" s="85"/>
+      <c r="AY33" s="85" t="s">
+        <v>37</v>
+      </c>
       <c r="BC33" s="19"/>
       <c r="BD33" s="19"/>
       <c r="BE33" s="19"/>
@@ -5125,21 +5267,17 @@
     </row>
     <row r="34" spans="2:141">
       <c r="C34" s="24"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="103" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
       <c r="BC34" s="19"/>
       <c r="BD34" s="19"/>
       <c r="BE34" s="19"/>
@@ -5161,17 +5299,17 @@
     </row>
     <row r="35" spans="2:141">
       <c r="C35" s="24"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
       <c r="R35" s="54"/>
       <c r="S35" s="16"/>
       <c r="T35" s="16"/>
@@ -5227,21 +5365,21 @@
     </row>
     <row r="36" spans="2:141">
       <c r="C36" s="24"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="95" t="s">
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="72"/>
+      <c r="L36" s="107"/>
+      <c r="M36" s="107"/>
+      <c r="N36" s="71"/>
       <c r="R36" s="18"/>
-      <c r="U36" s="71" t="s">
+      <c r="U36" s="70" t="s">
         <v>40</v>
       </c>
       <c r="V36" s="19"/>
@@ -5250,7 +5388,7 @@
       <c r="Y36" s="19"/>
       <c r="Z36" s="19"/>
       <c r="AB36" s="18"/>
-      <c r="AE36" s="71" t="s">
+      <c r="AE36" s="70" t="s">
         <v>40</v>
       </c>
       <c r="AF36" s="19"/>
@@ -5259,7 +5397,7 @@
       <c r="AI36" s="19"/>
       <c r="AJ36" s="19"/>
       <c r="AL36" s="18"/>
-      <c r="AO36" s="71" t="s">
+      <c r="AO36" s="70" t="s">
         <v>40</v>
       </c>
       <c r="AP36" s="19"/>
@@ -5268,7 +5406,7 @@
       <c r="AS36" s="19"/>
       <c r="AT36" s="19"/>
       <c r="AV36" s="18"/>
-      <c r="AY36" s="71" t="s">
+      <c r="AY36" s="70" t="s">
         <v>40</v>
       </c>
       <c r="AZ36" s="19"/>
@@ -5295,17 +5433,17 @@
     </row>
     <row r="37" spans="2:141">
       <c r="C37" s="24"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
       <c r="R37" s="18"/>
       <c r="S37" s="19"/>
       <c r="T37" s="19"/>
@@ -5449,30 +5587,22 @@
     </row>
     <row r="40" spans="2:141">
       <c r="C40" s="24"/>
-      <c r="R40" s="70" t="s">
+      <c r="R40" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="U40" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB40" s="70" t="s">
+      <c r="U40" s="69"/>
+      <c r="AB40" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="AE40" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL40" s="70" t="s">
+      <c r="AE40" s="69"/>
+      <c r="AL40" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="AO40" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="AV40" s="70" t="s">
+      <c r="AO40" s="69"/>
+      <c r="AV40" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="AY40" s="69" t="s">
-        <v>37</v>
-      </c>
+      <c r="AY40" s="69"/>
       <c r="BC40" s="19"/>
       <c r="BD40" s="19"/>
       <c r="BE40" s="19"/>
@@ -5494,6 +5624,38 @@
     </row>
     <row r="41" spans="2:141">
       <c r="C41" s="24"/>
+      <c r="R41" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="S41" s="85"/>
+      <c r="T41" s="85"/>
+      <c r="U41" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB41" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC41" s="85"/>
+      <c r="AD41" s="85"/>
+      <c r="AE41" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL41" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM41" s="85"/>
+      <c r="AN41" s="85"/>
+      <c r="AO41" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV41" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW41" s="85"/>
+      <c r="AX41" s="85"/>
+      <c r="AY41" s="85" t="s">
+        <v>37</v>
+      </c>
       <c r="AZ41" s="19"/>
       <c r="BA41" s="19"/>
       <c r="BB41" s="19"/>
@@ -5518,7 +5680,7 @@
     </row>
     <row r="42" spans="2:141">
       <c r="C42" s="24"/>
-      <c r="AJ42" s="76"/>
+      <c r="AJ42" s="75"/>
       <c r="BO42" s="19"/>
       <c r="BP42" s="19"/>
       <c r="BQ42" s="19"/>
@@ -5772,10 +5934,10 @@
       <c r="BU46" s="19"/>
     </row>
     <row r="47" spans="2:141">
-      <c r="C47" s="97" t="s">
+      <c r="C47" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="98"/>
+      <c r="D47" s="106"/>
       <c r="E47" s="32" t="s">
         <v>19</v>
       </c>
@@ -5864,104 +6026,104 @@
     </row>
     <row r="48" spans="2:141" ht="38.1" customHeight="1">
       <c r="B48" s="35"/>
-      <c r="C48" s="81">
-        <f>ROW()-ROW($C$47)</f>
+      <c r="C48" s="90">
+        <f t="shared" ref="C48:C53" si="0">ROW()-ROW($C$47)</f>
         <v>1</v>
       </c>
-      <c r="D48" s="82"/>
-      <c r="E48" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="87"/>
-      <c r="M48" s="88"/>
-      <c r="N48" s="99" t="s">
+      <c r="D48" s="91"/>
+      <c r="E48" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
+      <c r="K48" s="96"/>
+      <c r="L48" s="96"/>
+      <c r="M48" s="97"/>
+      <c r="N48" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="O48" s="100"/>
-      <c r="P48" s="100"/>
-      <c r="Q48" s="100"/>
-      <c r="R48" s="100"/>
-      <c r="S48" s="100"/>
-      <c r="T48" s="100"/>
-      <c r="U48" s="100"/>
-      <c r="V48" s="100"/>
-      <c r="W48" s="100"/>
-      <c r="X48" s="100"/>
-      <c r="Y48" s="100"/>
-      <c r="Z48" s="100"/>
-      <c r="AA48" s="100"/>
-      <c r="AB48" s="100"/>
-      <c r="AC48" s="100"/>
-      <c r="AD48" s="100"/>
-      <c r="AE48" s="101"/>
-      <c r="AF48" s="83" t="s">
+      <c r="O48" s="109"/>
+      <c r="P48" s="109"/>
+      <c r="Q48" s="109"/>
+      <c r="R48" s="109"/>
+      <c r="S48" s="109"/>
+      <c r="T48" s="109"/>
+      <c r="U48" s="109"/>
+      <c r="V48" s="109"/>
+      <c r="W48" s="109"/>
+      <c r="X48" s="109"/>
+      <c r="Y48" s="109"/>
+      <c r="Z48" s="109"/>
+      <c r="AA48" s="109"/>
+      <c r="AB48" s="109"/>
+      <c r="AC48" s="109"/>
+      <c r="AD48" s="109"/>
+      <c r="AE48" s="110"/>
+      <c r="AF48" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="AG48" s="84"/>
-      <c r="AH48" s="84"/>
-      <c r="AI48" s="84"/>
-      <c r="AJ48" s="84"/>
-      <c r="AK48" s="84"/>
-      <c r="AL48" s="84"/>
-      <c r="AM48" s="84"/>
-      <c r="AN48" s="85"/>
-      <c r="AO48" s="83" t="s">
+      <c r="AG48" s="93"/>
+      <c r="AH48" s="93"/>
+      <c r="AI48" s="93"/>
+      <c r="AJ48" s="93"/>
+      <c r="AK48" s="93"/>
+      <c r="AL48" s="93"/>
+      <c r="AM48" s="93"/>
+      <c r="AN48" s="94"/>
+      <c r="AO48" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="AP48" s="84"/>
-      <c r="AQ48" s="84"/>
-      <c r="AR48" s="84"/>
-      <c r="AS48" s="85"/>
-      <c r="AT48" s="89" t="s">
+      <c r="AP48" s="93"/>
+      <c r="AQ48" s="93"/>
+      <c r="AR48" s="93"/>
+      <c r="AS48" s="94"/>
+      <c r="AT48" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="AU48" s="84"/>
-      <c r="AV48" s="84"/>
-      <c r="AW48" s="85"/>
-      <c r="AX48" s="83" t="s">
+      <c r="AU48" s="93"/>
+      <c r="AV48" s="93"/>
+      <c r="AW48" s="94"/>
+      <c r="AX48" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="AY48" s="84"/>
-      <c r="AZ48" s="84"/>
-      <c r="BA48" s="84"/>
-      <c r="BB48" s="84"/>
-      <c r="BC48" s="85"/>
-      <c r="BD48" s="83" t="s">
+      <c r="AY48" s="93"/>
+      <c r="AZ48" s="93"/>
+      <c r="BA48" s="93"/>
+      <c r="BB48" s="93"/>
+      <c r="BC48" s="94"/>
+      <c r="BD48" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="BE48" s="85"/>
-      <c r="BF48" s="96"/>
-      <c r="BG48" s="84"/>
-      <c r="BH48" s="84"/>
-      <c r="BI48" s="84"/>
-      <c r="BJ48" s="84"/>
-      <c r="BK48" s="84"/>
-      <c r="BL48" s="84"/>
-      <c r="BM48" s="84"/>
-      <c r="BN48" s="84"/>
-      <c r="BO48" s="84"/>
-      <c r="BP48" s="84"/>
-      <c r="BQ48" s="84"/>
-      <c r="BR48" s="84"/>
-      <c r="BS48" s="84"/>
-      <c r="BT48" s="84"/>
-      <c r="BU48" s="85"/>
+      <c r="BE48" s="94"/>
+      <c r="BF48" s="101"/>
+      <c r="BG48" s="93"/>
+      <c r="BH48" s="93"/>
+      <c r="BI48" s="93"/>
+      <c r="BJ48" s="93"/>
+      <c r="BK48" s="93"/>
+      <c r="BL48" s="93"/>
+      <c r="BM48" s="93"/>
+      <c r="BN48" s="93"/>
+      <c r="BO48" s="93"/>
+      <c r="BP48" s="93"/>
+      <c r="BQ48" s="93"/>
+      <c r="BR48" s="93"/>
+      <c r="BS48" s="93"/>
+      <c r="BT48" s="93"/>
+      <c r="BU48" s="94"/>
     </row>
     <row r="49" spans="2:73" ht="38.1" customHeight="1">
       <c r="B49" s="35"/>
-      <c r="C49" s="81">
-        <f>ROW()-ROW($C$47)</f>
+      <c r="C49" s="90">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D49" s="82"/>
+      <c r="D49" s="91"/>
       <c r="E49" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F49" s="45"/>
       <c r="G49" s="45"/>
@@ -5971,88 +6133,88 @@
       <c r="K49" s="45"/>
       <c r="L49" s="45"/>
       <c r="M49" s="46"/>
-      <c r="N49" s="83" t="s">
+      <c r="N49" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="O49" s="93"/>
+      <c r="P49" s="93"/>
+      <c r="Q49" s="93"/>
+      <c r="R49" s="93"/>
+      <c r="S49" s="93"/>
+      <c r="T49" s="93"/>
+      <c r="U49" s="93"/>
+      <c r="V49" s="93"/>
+      <c r="W49" s="93"/>
+      <c r="X49" s="93"/>
+      <c r="Y49" s="93"/>
+      <c r="Z49" s="93"/>
+      <c r="AA49" s="93"/>
+      <c r="AB49" s="93"/>
+      <c r="AC49" s="93"/>
+      <c r="AD49" s="93"/>
+      <c r="AE49" s="94"/>
+      <c r="AF49" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG49" s="93"/>
+      <c r="AH49" s="93"/>
+      <c r="AI49" s="93"/>
+      <c r="AJ49" s="93"/>
+      <c r="AK49" s="93"/>
+      <c r="AL49" s="93"/>
+      <c r="AM49" s="93"/>
+      <c r="AN49" s="94"/>
+      <c r="AO49" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP49" s="93"/>
+      <c r="AQ49" s="93"/>
+      <c r="AR49" s="93"/>
+      <c r="AS49" s="94"/>
+      <c r="AT49" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU49" s="93"/>
+      <c r="AV49" s="93"/>
+      <c r="AW49" s="94"/>
+      <c r="AX49" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY49" s="93"/>
+      <c r="AZ49" s="93"/>
+      <c r="BA49" s="93"/>
+      <c r="BB49" s="93"/>
+      <c r="BC49" s="94"/>
+      <c r="BD49" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE49" s="94"/>
+      <c r="BF49" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="O49" s="84"/>
-      <c r="P49" s="84"/>
-      <c r="Q49" s="84"/>
-      <c r="R49" s="84"/>
-      <c r="S49" s="84"/>
-      <c r="T49" s="84"/>
-      <c r="U49" s="84"/>
-      <c r="V49" s="84"/>
-      <c r="W49" s="84"/>
-      <c r="X49" s="84"/>
-      <c r="Y49" s="84"/>
-      <c r="Z49" s="84"/>
-      <c r="AA49" s="84"/>
-      <c r="AB49" s="84"/>
-      <c r="AC49" s="84"/>
-      <c r="AD49" s="84"/>
-      <c r="AE49" s="85"/>
-      <c r="AF49" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG49" s="84"/>
-      <c r="AH49" s="84"/>
-      <c r="AI49" s="84"/>
-      <c r="AJ49" s="84"/>
-      <c r="AK49" s="84"/>
-      <c r="AL49" s="84"/>
-      <c r="AM49" s="84"/>
-      <c r="AN49" s="85"/>
-      <c r="AO49" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP49" s="84"/>
-      <c r="AQ49" s="84"/>
-      <c r="AR49" s="84"/>
-      <c r="AS49" s="85"/>
-      <c r="AT49" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU49" s="84"/>
-      <c r="AV49" s="84"/>
-      <c r="AW49" s="85"/>
-      <c r="AX49" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY49" s="84"/>
-      <c r="AZ49" s="84"/>
-      <c r="BA49" s="84"/>
-      <c r="BB49" s="84"/>
-      <c r="BC49" s="85"/>
-      <c r="BD49" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="BE49" s="85"/>
-      <c r="BF49" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG49" s="84"/>
-      <c r="BH49" s="84"/>
-      <c r="BI49" s="84"/>
-      <c r="BJ49" s="84"/>
-      <c r="BK49" s="84"/>
-      <c r="BL49" s="84"/>
-      <c r="BM49" s="84"/>
-      <c r="BN49" s="84"/>
-      <c r="BO49" s="84"/>
-      <c r="BP49" s="84"/>
-      <c r="BQ49" s="84"/>
-      <c r="BR49" s="84"/>
-      <c r="BS49" s="84"/>
-      <c r="BT49" s="84"/>
-      <c r="BU49" s="85"/>
+      <c r="BG49" s="93"/>
+      <c r="BH49" s="93"/>
+      <c r="BI49" s="93"/>
+      <c r="BJ49" s="93"/>
+      <c r="BK49" s="93"/>
+      <c r="BL49" s="93"/>
+      <c r="BM49" s="93"/>
+      <c r="BN49" s="93"/>
+      <c r="BO49" s="93"/>
+      <c r="BP49" s="93"/>
+      <c r="BQ49" s="93"/>
+      <c r="BR49" s="93"/>
+      <c r="BS49" s="93"/>
+      <c r="BT49" s="93"/>
+      <c r="BU49" s="94"/>
     </row>
     <row r="50" spans="2:73">
       <c r="B50" s="35"/>
-      <c r="C50" s="81">
-        <f>ROW()-ROW($C$47)</f>
+      <c r="C50" s="90">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D50" s="82"/>
+      <c r="D50" s="91"/>
       <c r="E50" s="44" t="s">
         <v>50</v>
       </c>
@@ -6064,90 +6226,90 @@
       <c r="K50" s="45"/>
       <c r="L50" s="45"/>
       <c r="M50" s="46"/>
-      <c r="N50" s="83" t="s">
+      <c r="N50" s="92" t="s">
+        <v>95</v>
+      </c>
+      <c r="O50" s="93"/>
+      <c r="P50" s="93"/>
+      <c r="Q50" s="93"/>
+      <c r="R50" s="93"/>
+      <c r="S50" s="93"/>
+      <c r="T50" s="93"/>
+      <c r="U50" s="93"/>
+      <c r="V50" s="93"/>
+      <c r="W50" s="93"/>
+      <c r="X50" s="93"/>
+      <c r="Y50" s="93"/>
+      <c r="Z50" s="93"/>
+      <c r="AA50" s="93"/>
+      <c r="AB50" s="93"/>
+      <c r="AC50" s="93"/>
+      <c r="AD50" s="93"/>
+      <c r="AE50" s="94"/>
+      <c r="AF50" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG50" s="93"/>
+      <c r="AH50" s="93"/>
+      <c r="AI50" s="93"/>
+      <c r="AJ50" s="93"/>
+      <c r="AK50" s="93"/>
+      <c r="AL50" s="93"/>
+      <c r="AM50" s="93"/>
+      <c r="AN50" s="94"/>
+      <c r="AO50" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP50" s="93"/>
+      <c r="AQ50" s="93"/>
+      <c r="AR50" s="93"/>
+      <c r="AS50" s="94"/>
+      <c r="AT50" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU50" s="93"/>
+      <c r="AV50" s="93"/>
+      <c r="AW50" s="94"/>
+      <c r="AX50" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY50" s="93"/>
+      <c r="AZ50" s="93"/>
+      <c r="BA50" s="93"/>
+      <c r="BB50" s="93"/>
+      <c r="BC50" s="94"/>
+      <c r="BD50" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="O50" s="84"/>
-      <c r="P50" s="84"/>
-      <c r="Q50" s="84"/>
-      <c r="R50" s="84"/>
-      <c r="S50" s="84"/>
-      <c r="T50" s="84"/>
-      <c r="U50" s="84"/>
-      <c r="V50" s="84"/>
-      <c r="W50" s="84"/>
-      <c r="X50" s="84"/>
-      <c r="Y50" s="84"/>
-      <c r="Z50" s="84"/>
-      <c r="AA50" s="84"/>
-      <c r="AB50" s="84"/>
-      <c r="AC50" s="84"/>
-      <c r="AD50" s="84"/>
-      <c r="AE50" s="85"/>
-      <c r="AF50" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG50" s="84"/>
-      <c r="AH50" s="84"/>
-      <c r="AI50" s="84"/>
-      <c r="AJ50" s="84"/>
-      <c r="AK50" s="84"/>
-      <c r="AL50" s="84"/>
-      <c r="AM50" s="84"/>
-      <c r="AN50" s="85"/>
-      <c r="AO50" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP50" s="84"/>
-      <c r="AQ50" s="84"/>
-      <c r="AR50" s="84"/>
-      <c r="AS50" s="85"/>
-      <c r="AT50" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU50" s="84"/>
-      <c r="AV50" s="84"/>
-      <c r="AW50" s="85"/>
-      <c r="AX50" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY50" s="84"/>
-      <c r="AZ50" s="84"/>
-      <c r="BA50" s="84"/>
-      <c r="BB50" s="84"/>
-      <c r="BC50" s="85"/>
-      <c r="BD50" s="83" t="s">
+      <c r="BE50" s="94"/>
+      <c r="BF50" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="BE50" s="85"/>
-      <c r="BF50" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="BG50" s="87"/>
-      <c r="BH50" s="87"/>
-      <c r="BI50" s="87"/>
-      <c r="BJ50" s="87"/>
-      <c r="BK50" s="87"/>
-      <c r="BL50" s="87"/>
-      <c r="BM50" s="87"/>
-      <c r="BN50" s="87"/>
-      <c r="BO50" s="87"/>
-      <c r="BP50" s="87"/>
-      <c r="BQ50" s="87"/>
-      <c r="BR50" s="87"/>
-      <c r="BS50" s="87"/>
-      <c r="BT50" s="87"/>
-      <c r="BU50" s="88"/>
+      <c r="BG50" s="96"/>
+      <c r="BH50" s="96"/>
+      <c r="BI50" s="96"/>
+      <c r="BJ50" s="96"/>
+      <c r="BK50" s="96"/>
+      <c r="BL50" s="96"/>
+      <c r="BM50" s="96"/>
+      <c r="BN50" s="96"/>
+      <c r="BO50" s="96"/>
+      <c r="BP50" s="96"/>
+      <c r="BQ50" s="96"/>
+      <c r="BR50" s="96"/>
+      <c r="BS50" s="96"/>
+      <c r="BT50" s="96"/>
+      <c r="BU50" s="97"/>
     </row>
     <row r="51" spans="2:73">
       <c r="B51" s="35"/>
-      <c r="C51" s="81">
-        <f>ROW()-ROW($C$47)</f>
+      <c r="C51" s="90">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D51" s="82"/>
+      <c r="D51" s="91"/>
       <c r="E51" s="52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F51" s="49"/>
       <c r="G51" s="49"/>
@@ -6158,7 +6320,7 @@
       <c r="L51" s="49"/>
       <c r="M51" s="50"/>
       <c r="N51" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O51" s="51"/>
       <c r="P51" s="51"/>
@@ -6178,7 +6340,7 @@
       <c r="AD51" s="51"/>
       <c r="AE51" s="48"/>
       <c r="AF51" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG51" s="51"/>
       <c r="AH51" s="51"/>
@@ -6210,7 +6372,7 @@
       <c r="BB51" s="51"/>
       <c r="BC51" s="48"/>
       <c r="BD51" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BE51" s="48"/>
       <c r="BF51" s="52"/>
@@ -6232,11 +6394,11 @@
     </row>
     <row r="52" spans="2:73">
       <c r="B52" s="35"/>
-      <c r="C52" s="81">
-        <f>ROW()-ROW($C$47)</f>
+      <c r="C52" s="90">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D52" s="82"/>
+      <c r="D52" s="91"/>
       <c r="E52" s="52" t="s">
         <v>84</v>
       </c>
@@ -6249,7 +6411,7 @@
       <c r="L52" s="49"/>
       <c r="M52" s="50"/>
       <c r="N52" s="47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O52" s="51"/>
       <c r="P52" s="51"/>
@@ -6269,7 +6431,7 @@
       <c r="AD52" s="51"/>
       <c r="AE52" s="48"/>
       <c r="AF52" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG52" s="51"/>
       <c r="AH52" s="51"/>
@@ -6291,17 +6453,17 @@
       <c r="AV52" s="51"/>
       <c r="AW52" s="48"/>
       <c r="AX52" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AY52" s="51"/>
       <c r="AZ52" s="51"/>
       <c r="BA52" s="51"/>
       <c r="BB52" s="51"/>
       <c r="BC52" s="48"/>
-      <c r="BD52" s="83" t="s">
+      <c r="BD52" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="BE52" s="85"/>
+      <c r="BE52" s="94"/>
       <c r="BF52" s="52"/>
       <c r="BG52" s="49"/>
       <c r="BH52" s="49"/>
@@ -6321,11 +6483,11 @@
     </row>
     <row r="53" spans="2:73">
       <c r="B53" s="35"/>
-      <c r="C53" s="81">
-        <f>ROW()-ROW($C$47)</f>
+      <c r="C53" s="90">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D53" s="82"/>
+      <c r="D53" s="91"/>
       <c r="E53" s="44" t="s">
         <v>52</v>
       </c>
@@ -6337,78 +6499,78 @@
       <c r="K53" s="45"/>
       <c r="L53" s="45"/>
       <c r="M53" s="46"/>
-      <c r="N53" s="83" t="s">
+      <c r="N53" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="O53" s="84"/>
-      <c r="P53" s="84"/>
-      <c r="Q53" s="84"/>
-      <c r="R53" s="84"/>
-      <c r="S53" s="84"/>
-      <c r="T53" s="84"/>
-      <c r="U53" s="84"/>
-      <c r="V53" s="84"/>
-      <c r="W53" s="84"/>
-      <c r="X53" s="84"/>
-      <c r="Y53" s="84"/>
-      <c r="Z53" s="84"/>
-      <c r="AA53" s="84"/>
-      <c r="AB53" s="84"/>
-      <c r="AC53" s="84"/>
-      <c r="AD53" s="84"/>
-      <c r="AE53" s="85"/>
-      <c r="AF53" s="83" t="s">
+      <c r="O53" s="93"/>
+      <c r="P53" s="93"/>
+      <c r="Q53" s="93"/>
+      <c r="R53" s="93"/>
+      <c r="S53" s="93"/>
+      <c r="T53" s="93"/>
+      <c r="U53" s="93"/>
+      <c r="V53" s="93"/>
+      <c r="W53" s="93"/>
+      <c r="X53" s="93"/>
+      <c r="Y53" s="93"/>
+      <c r="Z53" s="93"/>
+      <c r="AA53" s="93"/>
+      <c r="AB53" s="93"/>
+      <c r="AC53" s="93"/>
+      <c r="AD53" s="93"/>
+      <c r="AE53" s="94"/>
+      <c r="AF53" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="AG53" s="84"/>
-      <c r="AH53" s="84"/>
-      <c r="AI53" s="84"/>
-      <c r="AJ53" s="84"/>
-      <c r="AK53" s="84"/>
-      <c r="AL53" s="84"/>
-      <c r="AM53" s="84"/>
-      <c r="AN53" s="85"/>
-      <c r="AO53" s="83" t="s">
+      <c r="AG53" s="93"/>
+      <c r="AH53" s="93"/>
+      <c r="AI53" s="93"/>
+      <c r="AJ53" s="93"/>
+      <c r="AK53" s="93"/>
+      <c r="AL53" s="93"/>
+      <c r="AM53" s="93"/>
+      <c r="AN53" s="94"/>
+      <c r="AO53" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="AP53" s="84"/>
-      <c r="AQ53" s="84"/>
-      <c r="AR53" s="84"/>
-      <c r="AS53" s="85"/>
-      <c r="AT53" s="89" t="s">
+      <c r="AP53" s="93"/>
+      <c r="AQ53" s="93"/>
+      <c r="AR53" s="93"/>
+      <c r="AS53" s="94"/>
+      <c r="AT53" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="AU53" s="90"/>
-      <c r="AV53" s="90"/>
-      <c r="AW53" s="91"/>
-      <c r="AX53" s="83" t="s">
+      <c r="AU53" s="99"/>
+      <c r="AV53" s="99"/>
+      <c r="AW53" s="100"/>
+      <c r="AX53" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="AY53" s="84"/>
-      <c r="AZ53" s="84"/>
-      <c r="BA53" s="84"/>
-      <c r="BB53" s="84"/>
-      <c r="BC53" s="85"/>
-      <c r="BD53" s="83" t="s">
+      <c r="AY53" s="93"/>
+      <c r="AZ53" s="93"/>
+      <c r="BA53" s="93"/>
+      <c r="BB53" s="93"/>
+      <c r="BC53" s="94"/>
+      <c r="BD53" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="BE53" s="85"/>
-      <c r="BF53" s="86"/>
-      <c r="BG53" s="87"/>
-      <c r="BH53" s="87"/>
-      <c r="BI53" s="87"/>
-      <c r="BJ53" s="87"/>
-      <c r="BK53" s="87"/>
-      <c r="BL53" s="87"/>
-      <c r="BM53" s="87"/>
-      <c r="BN53" s="87"/>
-      <c r="BO53" s="87"/>
-      <c r="BP53" s="87"/>
-      <c r="BQ53" s="87"/>
-      <c r="BR53" s="87"/>
-      <c r="BS53" s="87"/>
-      <c r="BT53" s="87"/>
-      <c r="BU53" s="88"/>
+      <c r="BE53" s="94"/>
+      <c r="BF53" s="95"/>
+      <c r="BG53" s="96"/>
+      <c r="BH53" s="96"/>
+      <c r="BI53" s="96"/>
+      <c r="BJ53" s="96"/>
+      <c r="BK53" s="96"/>
+      <c r="BL53" s="96"/>
+      <c r="BM53" s="96"/>
+      <c r="BN53" s="96"/>
+      <c r="BO53" s="96"/>
+      <c r="BP53" s="96"/>
+      <c r="BQ53" s="96"/>
+      <c r="BR53" s="96"/>
+      <c r="BS53" s="96"/>
+      <c r="BT53" s="96"/>
+      <c r="BU53" s="97"/>
     </row>
     <row r="54" spans="2:73">
       <c r="C54" s="19"/>
@@ -6490,10 +6652,10 @@
       <c r="BU55" s="19"/>
     </row>
     <row r="56" spans="2:73">
-      <c r="C56" s="97" t="s">
+      <c r="C56" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="98"/>
+      <c r="D56" s="106"/>
       <c r="E56" s="32" t="s">
         <v>19</v>
       </c>
@@ -6582,11 +6744,11 @@
     </row>
     <row r="57" spans="2:73">
       <c r="B57" s="35"/>
-      <c r="C57" s="81">
-        <f>ROW()-ROW($C$56)</f>
+      <c r="C57" s="90">
+        <f t="shared" ref="C57:C62" si="1">ROW()-ROW($C$56)</f>
         <v>1</v>
       </c>
-      <c r="D57" s="82"/>
+      <c r="D57" s="91"/>
       <c r="E57" s="44" t="s">
         <v>40</v>
       </c>
@@ -6598,181 +6760,181 @@
       <c r="K57" s="45"/>
       <c r="L57" s="45"/>
       <c r="M57" s="46"/>
-      <c r="N57" s="83" t="s">
+      <c r="N57" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="O57" s="84"/>
-      <c r="P57" s="84"/>
-      <c r="Q57" s="84"/>
-      <c r="R57" s="84"/>
-      <c r="S57" s="84"/>
-      <c r="T57" s="84"/>
-      <c r="U57" s="84"/>
-      <c r="V57" s="84"/>
-      <c r="W57" s="84"/>
-      <c r="X57" s="84"/>
-      <c r="Y57" s="84"/>
-      <c r="Z57" s="84"/>
-      <c r="AA57" s="84"/>
-      <c r="AB57" s="84"/>
-      <c r="AC57" s="84"/>
-      <c r="AD57" s="84"/>
-      <c r="AE57" s="85"/>
-      <c r="AF57" s="83" t="s">
+      <c r="O57" s="93"/>
+      <c r="P57" s="93"/>
+      <c r="Q57" s="93"/>
+      <c r="R57" s="93"/>
+      <c r="S57" s="93"/>
+      <c r="T57" s="93"/>
+      <c r="U57" s="93"/>
+      <c r="V57" s="93"/>
+      <c r="W57" s="93"/>
+      <c r="X57" s="93"/>
+      <c r="Y57" s="93"/>
+      <c r="Z57" s="93"/>
+      <c r="AA57" s="93"/>
+      <c r="AB57" s="93"/>
+      <c r="AC57" s="93"/>
+      <c r="AD57" s="93"/>
+      <c r="AE57" s="94"/>
+      <c r="AF57" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG57" s="93"/>
+      <c r="AH57" s="93"/>
+      <c r="AI57" s="93"/>
+      <c r="AJ57" s="93"/>
+      <c r="AK57" s="93"/>
+      <c r="AL57" s="93"/>
+      <c r="AM57" s="93"/>
+      <c r="AN57" s="94"/>
+      <c r="AO57" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP57" s="93"/>
+      <c r="AQ57" s="93"/>
+      <c r="AR57" s="93"/>
+      <c r="AS57" s="94"/>
+      <c r="AT57" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU57" s="99"/>
+      <c r="AV57" s="99"/>
+      <c r="AW57" s="100"/>
+      <c r="AX57" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY57" s="93"/>
+      <c r="AZ57" s="93"/>
+      <c r="BA57" s="93"/>
+      <c r="BB57" s="93"/>
+      <c r="BC57" s="94"/>
+      <c r="BD57" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE57" s="94"/>
+      <c r="BF57" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="AG57" s="84"/>
-      <c r="AH57" s="84"/>
-      <c r="AI57" s="84"/>
-      <c r="AJ57" s="84"/>
-      <c r="AK57" s="84"/>
-      <c r="AL57" s="84"/>
-      <c r="AM57" s="84"/>
-      <c r="AN57" s="85"/>
-      <c r="AO57" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP57" s="84"/>
-      <c r="AQ57" s="84"/>
-      <c r="AR57" s="84"/>
-      <c r="AS57" s="85"/>
-      <c r="AT57" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU57" s="90"/>
-      <c r="AV57" s="90"/>
-      <c r="AW57" s="91"/>
-      <c r="AX57" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="AY57" s="84"/>
-      <c r="AZ57" s="84"/>
-      <c r="BA57" s="84"/>
-      <c r="BB57" s="84"/>
-      <c r="BC57" s="85"/>
-      <c r="BD57" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="BE57" s="85"/>
-      <c r="BF57" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="BG57" s="87"/>
-      <c r="BH57" s="87"/>
-      <c r="BI57" s="87"/>
-      <c r="BJ57" s="87"/>
-      <c r="BK57" s="87"/>
-      <c r="BL57" s="87"/>
-      <c r="BM57" s="87"/>
-      <c r="BN57" s="87"/>
-      <c r="BO57" s="87"/>
-      <c r="BP57" s="87"/>
-      <c r="BQ57" s="87"/>
-      <c r="BR57" s="87"/>
-      <c r="BS57" s="87"/>
-      <c r="BT57" s="87"/>
-      <c r="BU57" s="88"/>
+      <c r="BG57" s="96"/>
+      <c r="BH57" s="96"/>
+      <c r="BI57" s="96"/>
+      <c r="BJ57" s="96"/>
+      <c r="BK57" s="96"/>
+      <c r="BL57" s="96"/>
+      <c r="BM57" s="96"/>
+      <c r="BN57" s="96"/>
+      <c r="BO57" s="96"/>
+      <c r="BP57" s="96"/>
+      <c r="BQ57" s="96"/>
+      <c r="BR57" s="96"/>
+      <c r="BS57" s="96"/>
+      <c r="BT57" s="96"/>
+      <c r="BU57" s="97"/>
     </row>
     <row r="58" spans="2:73">
       <c r="B58" s="35"/>
-      <c r="C58" s="81">
-        <f>ROW()-ROW($C$56)</f>
+      <c r="C58" s="90">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D58" s="82"/>
-      <c r="E58" s="86" t="s">
+      <c r="D58" s="91"/>
+      <c r="E58" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="F58" s="87"/>
-      <c r="G58" s="87"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="87"/>
-      <c r="K58" s="87"/>
-      <c r="L58" s="87"/>
-      <c r="M58" s="88"/>
-      <c r="N58" s="99" t="s">
+      <c r="F58" s="96"/>
+      <c r="G58" s="96"/>
+      <c r="H58" s="96"/>
+      <c r="I58" s="96"/>
+      <c r="J58" s="96"/>
+      <c r="K58" s="96"/>
+      <c r="L58" s="96"/>
+      <c r="M58" s="97"/>
+      <c r="N58" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="O58" s="100"/>
-      <c r="P58" s="100"/>
-      <c r="Q58" s="100"/>
-      <c r="R58" s="100"/>
-      <c r="S58" s="100"/>
-      <c r="T58" s="100"/>
-      <c r="U58" s="100"/>
-      <c r="V58" s="100"/>
-      <c r="W58" s="100"/>
-      <c r="X58" s="100"/>
-      <c r="Y58" s="100"/>
-      <c r="Z58" s="100"/>
-      <c r="AA58" s="100"/>
-      <c r="AB58" s="100"/>
-      <c r="AC58" s="100"/>
-      <c r="AD58" s="100"/>
-      <c r="AE58" s="101"/>
-      <c r="AF58" s="83" t="s">
+      <c r="O58" s="109"/>
+      <c r="P58" s="109"/>
+      <c r="Q58" s="109"/>
+      <c r="R58" s="109"/>
+      <c r="S58" s="109"/>
+      <c r="T58" s="109"/>
+      <c r="U58" s="109"/>
+      <c r="V58" s="109"/>
+      <c r="W58" s="109"/>
+      <c r="X58" s="109"/>
+      <c r="Y58" s="109"/>
+      <c r="Z58" s="109"/>
+      <c r="AA58" s="109"/>
+      <c r="AB58" s="109"/>
+      <c r="AC58" s="109"/>
+      <c r="AD58" s="109"/>
+      <c r="AE58" s="110"/>
+      <c r="AF58" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG58" s="93"/>
+      <c r="AH58" s="93"/>
+      <c r="AI58" s="93"/>
+      <c r="AJ58" s="93"/>
+      <c r="AK58" s="93"/>
+      <c r="AL58" s="93"/>
+      <c r="AM58" s="93"/>
+      <c r="AN58" s="94"/>
+      <c r="AO58" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP58" s="93"/>
+      <c r="AQ58" s="93"/>
+      <c r="AR58" s="93"/>
+      <c r="AS58" s="94"/>
+      <c r="AT58" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU58" s="99"/>
+      <c r="AV58" s="99"/>
+      <c r="AW58" s="100"/>
+      <c r="AX58" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY58" s="93"/>
+      <c r="AZ58" s="93"/>
+      <c r="BA58" s="93"/>
+      <c r="BB58" s="93"/>
+      <c r="BC58" s="94"/>
+      <c r="BD58" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE58" s="94"/>
+      <c r="BF58" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="AG58" s="84"/>
-      <c r="AH58" s="84"/>
-      <c r="AI58" s="84"/>
-      <c r="AJ58" s="84"/>
-      <c r="AK58" s="84"/>
-      <c r="AL58" s="84"/>
-      <c r="AM58" s="84"/>
-      <c r="AN58" s="85"/>
-      <c r="AO58" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP58" s="84"/>
-      <c r="AQ58" s="84"/>
-      <c r="AR58" s="84"/>
-      <c r="AS58" s="85"/>
-      <c r="AT58" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU58" s="90"/>
-      <c r="AV58" s="90"/>
-      <c r="AW58" s="91"/>
-      <c r="AX58" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="AY58" s="84"/>
-      <c r="AZ58" s="84"/>
-      <c r="BA58" s="84"/>
-      <c r="BB58" s="84"/>
-      <c r="BC58" s="85"/>
-      <c r="BD58" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="BE58" s="85"/>
-      <c r="BF58" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="BG58" s="87"/>
-      <c r="BH58" s="87"/>
-      <c r="BI58" s="87"/>
-      <c r="BJ58" s="87"/>
-      <c r="BK58" s="87"/>
-      <c r="BL58" s="87"/>
-      <c r="BM58" s="87"/>
-      <c r="BN58" s="87"/>
-      <c r="BO58" s="87"/>
-      <c r="BP58" s="87"/>
-      <c r="BQ58" s="87"/>
-      <c r="BR58" s="87"/>
-      <c r="BS58" s="87"/>
-      <c r="BT58" s="87"/>
-      <c r="BU58" s="88"/>
+      <c r="BG58" s="96"/>
+      <c r="BH58" s="96"/>
+      <c r="BI58" s="96"/>
+      <c r="BJ58" s="96"/>
+      <c r="BK58" s="96"/>
+      <c r="BL58" s="96"/>
+      <c r="BM58" s="96"/>
+      <c r="BN58" s="96"/>
+      <c r="BO58" s="96"/>
+      <c r="BP58" s="96"/>
+      <c r="BQ58" s="96"/>
+      <c r="BR58" s="96"/>
+      <c r="BS58" s="96"/>
+      <c r="BT58" s="96"/>
+      <c r="BU58" s="97"/>
     </row>
     <row r="59" spans="2:73">
       <c r="B59" s="35"/>
-      <c r="C59" s="81">
-        <f>ROW()-ROW($C$56)</f>
+      <c r="C59" s="90">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D59" s="82"/>
+      <c r="D59" s="91"/>
       <c r="E59" s="44" t="s">
         <v>60</v>
       </c>
@@ -6784,179 +6946,179 @@
       <c r="K59" s="45"/>
       <c r="L59" s="45"/>
       <c r="M59" s="46"/>
-      <c r="N59" s="83" t="s">
+      <c r="N59" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="O59" s="84"/>
-      <c r="P59" s="84"/>
-      <c r="Q59" s="84"/>
-      <c r="R59" s="84"/>
-      <c r="S59" s="84"/>
-      <c r="T59" s="84"/>
-      <c r="U59" s="84"/>
-      <c r="V59" s="84"/>
-      <c r="W59" s="84"/>
-      <c r="X59" s="84"/>
-      <c r="Y59" s="84"/>
-      <c r="Z59" s="84"/>
-      <c r="AA59" s="84"/>
-      <c r="AB59" s="84"/>
-      <c r="AC59" s="84"/>
-      <c r="AD59" s="84"/>
-      <c r="AE59" s="85"/>
-      <c r="AF59" s="83" t="s">
+      <c r="O59" s="93"/>
+      <c r="P59" s="93"/>
+      <c r="Q59" s="93"/>
+      <c r="R59" s="93"/>
+      <c r="S59" s="93"/>
+      <c r="T59" s="93"/>
+      <c r="U59" s="93"/>
+      <c r="V59" s="93"/>
+      <c r="W59" s="93"/>
+      <c r="X59" s="93"/>
+      <c r="Y59" s="93"/>
+      <c r="Z59" s="93"/>
+      <c r="AA59" s="93"/>
+      <c r="AB59" s="93"/>
+      <c r="AC59" s="93"/>
+      <c r="AD59" s="93"/>
+      <c r="AE59" s="94"/>
+      <c r="AF59" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="AG59" s="84"/>
-      <c r="AH59" s="84"/>
-      <c r="AI59" s="84"/>
-      <c r="AJ59" s="84"/>
-      <c r="AK59" s="84"/>
-      <c r="AL59" s="84"/>
-      <c r="AM59" s="84"/>
-      <c r="AN59" s="85"/>
-      <c r="AO59" s="83" t="s">
+      <c r="AG59" s="93"/>
+      <c r="AH59" s="93"/>
+      <c r="AI59" s="93"/>
+      <c r="AJ59" s="93"/>
+      <c r="AK59" s="93"/>
+      <c r="AL59" s="93"/>
+      <c r="AM59" s="93"/>
+      <c r="AN59" s="94"/>
+      <c r="AO59" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="AP59" s="84"/>
-      <c r="AQ59" s="84"/>
-      <c r="AR59" s="84"/>
-      <c r="AS59" s="85"/>
-      <c r="AT59" s="89" t="s">
+      <c r="AP59" s="93"/>
+      <c r="AQ59" s="93"/>
+      <c r="AR59" s="93"/>
+      <c r="AS59" s="94"/>
+      <c r="AT59" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="AU59" s="90"/>
-      <c r="AV59" s="90"/>
-      <c r="AW59" s="91"/>
-      <c r="AX59" s="83" t="s">
+      <c r="AU59" s="99"/>
+      <c r="AV59" s="99"/>
+      <c r="AW59" s="100"/>
+      <c r="AX59" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="AY59" s="84"/>
-      <c r="AZ59" s="84"/>
-      <c r="BA59" s="84"/>
-      <c r="BB59" s="84"/>
-      <c r="BC59" s="85"/>
-      <c r="BD59" s="83" t="s">
+      <c r="AY59" s="93"/>
+      <c r="AZ59" s="93"/>
+      <c r="BA59" s="93"/>
+      <c r="BB59" s="93"/>
+      <c r="BC59" s="94"/>
+      <c r="BD59" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="BE59" s="85"/>
-      <c r="BF59" s="96"/>
-      <c r="BG59" s="84"/>
-      <c r="BH59" s="84"/>
-      <c r="BI59" s="84"/>
-      <c r="BJ59" s="84"/>
-      <c r="BK59" s="84"/>
-      <c r="BL59" s="84"/>
-      <c r="BM59" s="84"/>
-      <c r="BN59" s="84"/>
-      <c r="BO59" s="84"/>
-      <c r="BP59" s="84"/>
-      <c r="BQ59" s="84"/>
-      <c r="BR59" s="84"/>
-      <c r="BS59" s="84"/>
-      <c r="BT59" s="84"/>
-      <c r="BU59" s="85"/>
+      <c r="BE59" s="94"/>
+      <c r="BF59" s="101"/>
+      <c r="BG59" s="93"/>
+      <c r="BH59" s="93"/>
+      <c r="BI59" s="93"/>
+      <c r="BJ59" s="93"/>
+      <c r="BK59" s="93"/>
+      <c r="BL59" s="93"/>
+      <c r="BM59" s="93"/>
+      <c r="BN59" s="93"/>
+      <c r="BO59" s="93"/>
+      <c r="BP59" s="93"/>
+      <c r="BQ59" s="93"/>
+      <c r="BR59" s="93"/>
+      <c r="BS59" s="93"/>
+      <c r="BT59" s="93"/>
+      <c r="BU59" s="94"/>
     </row>
     <row r="60" spans="2:73">
       <c r="B60" s="35"/>
-      <c r="C60" s="81">
-        <f>ROW()-ROW($C$56)</f>
+      <c r="C60" s="90">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D60" s="82"/>
-      <c r="E60" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="F60" s="45"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="45"/>
-      <c r="L60" s="45"/>
-      <c r="M60" s="46"/>
-      <c r="N60" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="O60" s="84"/>
-      <c r="P60" s="84"/>
-      <c r="Q60" s="84"/>
-      <c r="R60" s="84"/>
-      <c r="S60" s="84"/>
-      <c r="T60" s="84"/>
-      <c r="U60" s="84"/>
-      <c r="V60" s="84"/>
-      <c r="W60" s="84"/>
-      <c r="X60" s="84"/>
-      <c r="Y60" s="84"/>
-      <c r="Z60" s="84"/>
-      <c r="AA60" s="84"/>
-      <c r="AB60" s="84"/>
-      <c r="AC60" s="84"/>
-      <c r="AD60" s="84"/>
-      <c r="AE60" s="85"/>
-      <c r="AF60" s="83" t="s">
+      <c r="D60" s="91"/>
+      <c r="E60" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" s="80"/>
+      <c r="G60" s="80"/>
+      <c r="H60" s="80"/>
+      <c r="I60" s="80"/>
+      <c r="J60" s="80"/>
+      <c r="K60" s="80"/>
+      <c r="L60" s="80"/>
+      <c r="M60" s="81"/>
+      <c r="N60" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="O60" s="77"/>
+      <c r="P60" s="77"/>
+      <c r="Q60" s="77"/>
+      <c r="R60" s="77"/>
+      <c r="S60" s="77"/>
+      <c r="T60" s="77"/>
+      <c r="U60" s="77"/>
+      <c r="V60" s="77"/>
+      <c r="W60" s="77"/>
+      <c r="X60" s="77"/>
+      <c r="Y60" s="77"/>
+      <c r="Z60" s="77"/>
+      <c r="AA60" s="77"/>
+      <c r="AB60" s="77"/>
+      <c r="AC60" s="77"/>
+      <c r="AD60" s="77"/>
+      <c r="AE60" s="78"/>
+      <c r="AF60" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="AG60" s="84"/>
-      <c r="AH60" s="84"/>
-      <c r="AI60" s="84"/>
-      <c r="AJ60" s="84"/>
-      <c r="AK60" s="84"/>
-      <c r="AL60" s="84"/>
-      <c r="AM60" s="84"/>
-      <c r="AN60" s="85"/>
-      <c r="AO60" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP60" s="84"/>
-      <c r="AQ60" s="84"/>
-      <c r="AR60" s="84"/>
-      <c r="AS60" s="85"/>
-      <c r="AT60" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU60" s="90"/>
-      <c r="AV60" s="90"/>
-      <c r="AW60" s="91"/>
-      <c r="AX60" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="AY60" s="84"/>
-      <c r="AZ60" s="84"/>
-      <c r="BA60" s="84"/>
-      <c r="BB60" s="84"/>
-      <c r="BC60" s="85"/>
-      <c r="BD60" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="BE60" s="85"/>
-      <c r="BF60" s="86"/>
-      <c r="BG60" s="87"/>
-      <c r="BH60" s="87"/>
-      <c r="BI60" s="87"/>
-      <c r="BJ60" s="87"/>
-      <c r="BK60" s="87"/>
-      <c r="BL60" s="87"/>
-      <c r="BM60" s="87"/>
-      <c r="BN60" s="87"/>
-      <c r="BO60" s="87"/>
-      <c r="BP60" s="87"/>
-      <c r="BQ60" s="87"/>
-      <c r="BR60" s="87"/>
-      <c r="BS60" s="87"/>
-      <c r="BT60" s="87"/>
-      <c r="BU60" s="88"/>
+      <c r="AG60" s="77"/>
+      <c r="AH60" s="77"/>
+      <c r="AI60" s="77"/>
+      <c r="AJ60" s="77"/>
+      <c r="AK60" s="77"/>
+      <c r="AL60" s="77"/>
+      <c r="AM60" s="77"/>
+      <c r="AN60" s="78"/>
+      <c r="AO60" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP60" s="77"/>
+      <c r="AQ60" s="77"/>
+      <c r="AR60" s="77"/>
+      <c r="AS60" s="78"/>
+      <c r="AT60" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU60" s="99"/>
+      <c r="AV60" s="99"/>
+      <c r="AW60" s="100"/>
+      <c r="AX60" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY60" s="77"/>
+      <c r="AZ60" s="77"/>
+      <c r="BA60" s="77"/>
+      <c r="BB60" s="77"/>
+      <c r="BC60" s="78"/>
+      <c r="BD60" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE60" s="78"/>
+      <c r="BF60" s="82"/>
+      <c r="BG60" s="77"/>
+      <c r="BH60" s="77"/>
+      <c r="BI60" s="77"/>
+      <c r="BJ60" s="77"/>
+      <c r="BK60" s="77"/>
+      <c r="BL60" s="77"/>
+      <c r="BM60" s="77"/>
+      <c r="BN60" s="77"/>
+      <c r="BO60" s="77"/>
+      <c r="BP60" s="77"/>
+      <c r="BQ60" s="77"/>
+      <c r="BR60" s="77"/>
+      <c r="BS60" s="77"/>
+      <c r="BT60" s="77"/>
+      <c r="BU60" s="78"/>
     </row>
     <row r="61" spans="2:73">
       <c r="B61" s="35"/>
-      <c r="C61" s="81">
-        <f>ROW()-ROW($C$56)</f>
+      <c r="C61" s="90">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D61" s="82"/>
+      <c r="D61" s="91"/>
       <c r="E61" s="44" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F61" s="45"/>
       <c r="G61" s="45"/>
@@ -6966,158 +7128,174 @@
       <c r="K61" s="45"/>
       <c r="L61" s="45"/>
       <c r="M61" s="46"/>
-      <c r="N61" s="83" t="s">
+      <c r="N61" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="O61" s="93"/>
+      <c r="P61" s="93"/>
+      <c r="Q61" s="93"/>
+      <c r="R61" s="93"/>
+      <c r="S61" s="93"/>
+      <c r="T61" s="93"/>
+      <c r="U61" s="93"/>
+      <c r="V61" s="93"/>
+      <c r="W61" s="93"/>
+      <c r="X61" s="93"/>
+      <c r="Y61" s="93"/>
+      <c r="Z61" s="93"/>
+      <c r="AA61" s="93"/>
+      <c r="AB61" s="93"/>
+      <c r="AC61" s="93"/>
+      <c r="AD61" s="93"/>
+      <c r="AE61" s="94"/>
+      <c r="AF61" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG61" s="93"/>
+      <c r="AH61" s="93"/>
+      <c r="AI61" s="93"/>
+      <c r="AJ61" s="93"/>
+      <c r="AK61" s="93"/>
+      <c r="AL61" s="93"/>
+      <c r="AM61" s="93"/>
+      <c r="AN61" s="94"/>
+      <c r="AO61" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP61" s="93"/>
+      <c r="AQ61" s="93"/>
+      <c r="AR61" s="93"/>
+      <c r="AS61" s="94"/>
+      <c r="AT61" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU61" s="99"/>
+      <c r="AV61" s="99"/>
+      <c r="AW61" s="100"/>
+      <c r="AX61" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY61" s="93"/>
+      <c r="AZ61" s="93"/>
+      <c r="BA61" s="93"/>
+      <c r="BB61" s="93"/>
+      <c r="BC61" s="94"/>
+      <c r="BD61" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE61" s="94"/>
+      <c r="BF61" s="95"/>
+      <c r="BG61" s="96"/>
+      <c r="BH61" s="96"/>
+      <c r="BI61" s="96"/>
+      <c r="BJ61" s="96"/>
+      <c r="BK61" s="96"/>
+      <c r="BL61" s="96"/>
+      <c r="BM61" s="96"/>
+      <c r="BN61" s="96"/>
+      <c r="BO61" s="96"/>
+      <c r="BP61" s="96"/>
+      <c r="BQ61" s="96"/>
+      <c r="BR61" s="96"/>
+      <c r="BS61" s="96"/>
+      <c r="BT61" s="96"/>
+      <c r="BU61" s="97"/>
+    </row>
+    <row r="62" spans="2:73">
+      <c r="B62" s="35"/>
+      <c r="C62" s="90">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D62" s="91"/>
+      <c r="E62" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="45"/>
+      <c r="L62" s="45"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="O61" s="84"/>
-      <c r="P61" s="84"/>
-      <c r="Q61" s="84"/>
-      <c r="R61" s="84"/>
-      <c r="S61" s="84"/>
-      <c r="T61" s="84"/>
-      <c r="U61" s="84"/>
-      <c r="V61" s="84"/>
-      <c r="W61" s="84"/>
-      <c r="X61" s="84"/>
-      <c r="Y61" s="84"/>
-      <c r="Z61" s="84"/>
-      <c r="AA61" s="84"/>
-      <c r="AB61" s="84"/>
-      <c r="AC61" s="84"/>
-      <c r="AD61" s="84"/>
-      <c r="AE61" s="85"/>
-      <c r="AF61" s="83" t="s">
+      <c r="O62" s="93"/>
+      <c r="P62" s="93"/>
+      <c r="Q62" s="93"/>
+      <c r="R62" s="93"/>
+      <c r="S62" s="93"/>
+      <c r="T62" s="93"/>
+      <c r="U62" s="93"/>
+      <c r="V62" s="93"/>
+      <c r="W62" s="93"/>
+      <c r="X62" s="93"/>
+      <c r="Y62" s="93"/>
+      <c r="Z62" s="93"/>
+      <c r="AA62" s="93"/>
+      <c r="AB62" s="93"/>
+      <c r="AC62" s="93"/>
+      <c r="AD62" s="93"/>
+      <c r="AE62" s="94"/>
+      <c r="AF62" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="AG61" s="84"/>
-      <c r="AH61" s="84"/>
-      <c r="AI61" s="84"/>
-      <c r="AJ61" s="84"/>
-      <c r="AK61" s="84"/>
-      <c r="AL61" s="84"/>
-      <c r="AM61" s="84"/>
-      <c r="AN61" s="85"/>
-      <c r="AO61" s="83" t="s">
+      <c r="AG62" s="93"/>
+      <c r="AH62" s="93"/>
+      <c r="AI62" s="93"/>
+      <c r="AJ62" s="93"/>
+      <c r="AK62" s="93"/>
+      <c r="AL62" s="93"/>
+      <c r="AM62" s="93"/>
+      <c r="AN62" s="94"/>
+      <c r="AO62" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="AP61" s="84"/>
-      <c r="AQ61" s="84"/>
-      <c r="AR61" s="84"/>
-      <c r="AS61" s="85"/>
-      <c r="AT61" s="89" t="s">
+      <c r="AP62" s="93"/>
+      <c r="AQ62" s="93"/>
+      <c r="AR62" s="93"/>
+      <c r="AS62" s="94"/>
+      <c r="AT62" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="AU61" s="90"/>
-      <c r="AV61" s="90"/>
-      <c r="AW61" s="91"/>
-      <c r="AX61" s="83" t="s">
+      <c r="AU62" s="99"/>
+      <c r="AV62" s="99"/>
+      <c r="AW62" s="100"/>
+      <c r="AX62" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="AY61" s="84"/>
-      <c r="AZ61" s="84"/>
-      <c r="BA61" s="84"/>
-      <c r="BB61" s="84"/>
-      <c r="BC61" s="85"/>
-      <c r="BD61" s="83" t="s">
+      <c r="AY62" s="93"/>
+      <c r="AZ62" s="93"/>
+      <c r="BA62" s="93"/>
+      <c r="BB62" s="93"/>
+      <c r="BC62" s="94"/>
+      <c r="BD62" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="BE61" s="85"/>
-      <c r="BF61" s="86" t="s">
+      <c r="BE62" s="94"/>
+      <c r="BF62" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="BG61" s="87"/>
-      <c r="BH61" s="87"/>
-      <c r="BI61" s="87"/>
-      <c r="BJ61" s="87"/>
-      <c r="BK61" s="87"/>
-      <c r="BL61" s="87"/>
-      <c r="BM61" s="87"/>
-      <c r="BN61" s="87"/>
-      <c r="BO61" s="87"/>
-      <c r="BP61" s="87"/>
-      <c r="BQ61" s="87"/>
-      <c r="BR61" s="87"/>
-      <c r="BS61" s="87"/>
-      <c r="BT61" s="87"/>
-      <c r="BU61" s="88"/>
-    </row>
-    <row r="62" spans="2:73">
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19"/>
-      <c r="U62" s="19"/>
-      <c r="V62" s="19"/>
-      <c r="W62" s="19"/>
-      <c r="X62" s="19"/>
-      <c r="Y62" s="19"/>
-      <c r="Z62" s="19"/>
-      <c r="AA62" s="19"/>
-      <c r="AB62" s="19"/>
-      <c r="AC62" s="19"/>
-      <c r="AD62" s="19"/>
-      <c r="AE62" s="19"/>
-      <c r="AF62" s="19"/>
-      <c r="AG62" s="19"/>
-      <c r="AH62" s="19"/>
-      <c r="AI62" s="19"/>
-      <c r="AJ62" s="19"/>
-      <c r="AK62" s="19"/>
-      <c r="AL62" s="19"/>
-      <c r="AM62" s="19"/>
-      <c r="AN62" s="19"/>
-      <c r="AO62" s="19"/>
-      <c r="AP62" s="19"/>
-      <c r="AQ62" s="19"/>
-      <c r="AR62" s="19"/>
-      <c r="AS62" s="19"/>
-      <c r="AT62" s="19"/>
-      <c r="AU62" s="19"/>
-      <c r="AV62" s="19"/>
-      <c r="AW62" s="19"/>
-      <c r="AX62" s="19"/>
-      <c r="AY62" s="19"/>
-      <c r="AZ62" s="19"/>
-      <c r="BA62" s="19"/>
-      <c r="BB62" s="19"/>
-      <c r="BC62" s="19"/>
-      <c r="BD62" s="19"/>
-      <c r="BE62" s="19"/>
-      <c r="BF62" s="19"/>
-      <c r="BG62" s="19"/>
-      <c r="BH62" s="19"/>
-      <c r="BI62" s="19"/>
-      <c r="BJ62" s="19"/>
-      <c r="BK62" s="19"/>
-      <c r="BL62" s="19"/>
-      <c r="BM62" s="19"/>
-      <c r="BN62" s="19"/>
-      <c r="BO62" s="19"/>
-      <c r="BP62" s="19"/>
-      <c r="BQ62" s="19"/>
-      <c r="BR62" s="19"/>
-      <c r="BS62" s="19"/>
-      <c r="BT62" s="19"/>
-      <c r="BU62" s="19"/>
+      <c r="BG62" s="96"/>
+      <c r="BH62" s="96"/>
+      <c r="BI62" s="96"/>
+      <c r="BJ62" s="96"/>
+      <c r="BK62" s="96"/>
+      <c r="BL62" s="96"/>
+      <c r="BM62" s="96"/>
+      <c r="BN62" s="96"/>
+      <c r="BO62" s="96"/>
+      <c r="BP62" s="96"/>
+      <c r="BQ62" s="96"/>
+      <c r="BR62" s="96"/>
+      <c r="BS62" s="96"/>
+      <c r="BT62" s="96"/>
+      <c r="BU62" s="97"/>
     </row>
     <row r="63" spans="2:73">
-      <c r="C63" s="19" t="s">
-        <v>26</v>
-      </c>
+      <c r="C63" s="19"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
@@ -7190,309 +7368,304 @@
       <c r="BU63" s="19"/>
     </row>
     <row r="64" spans="2:73">
-      <c r="C64" s="97" t="s">
+      <c r="C64" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="19"/>
+      <c r="T64" s="19"/>
+      <c r="U64" s="19"/>
+      <c r="V64" s="19"/>
+      <c r="W64" s="19"/>
+      <c r="X64" s="19"/>
+      <c r="Y64" s="19"/>
+      <c r="Z64" s="19"/>
+      <c r="AA64" s="19"/>
+      <c r="AB64" s="19"/>
+      <c r="AC64" s="19"/>
+      <c r="AD64" s="19"/>
+      <c r="AE64" s="19"/>
+      <c r="AF64" s="19"/>
+      <c r="AG64" s="19"/>
+      <c r="AH64" s="19"/>
+      <c r="AI64" s="19"/>
+      <c r="AJ64" s="19"/>
+      <c r="AK64" s="19"/>
+      <c r="AL64" s="19"/>
+      <c r="AM64" s="19"/>
+      <c r="AN64" s="19"/>
+      <c r="AO64" s="19"/>
+      <c r="AP64" s="19"/>
+      <c r="AQ64" s="19"/>
+      <c r="AR64" s="19"/>
+      <c r="AS64" s="19"/>
+      <c r="AT64" s="19"/>
+      <c r="AU64" s="19"/>
+      <c r="AV64" s="19"/>
+      <c r="AW64" s="19"/>
+      <c r="AX64" s="19"/>
+      <c r="AY64" s="19"/>
+      <c r="AZ64" s="19"/>
+      <c r="BA64" s="19"/>
+      <c r="BB64" s="19"/>
+      <c r="BC64" s="19"/>
+      <c r="BD64" s="19"/>
+      <c r="BE64" s="19"/>
+      <c r="BF64" s="19"/>
+      <c r="BG64" s="19"/>
+      <c r="BH64" s="19"/>
+      <c r="BI64" s="19"/>
+      <c r="BJ64" s="19"/>
+      <c r="BK64" s="19"/>
+      <c r="BL64" s="19"/>
+      <c r="BM64" s="19"/>
+      <c r="BN64" s="19"/>
+      <c r="BO64" s="19"/>
+      <c r="BP64" s="19"/>
+      <c r="BQ64" s="19"/>
+      <c r="BR64" s="19"/>
+      <c r="BS64" s="19"/>
+      <c r="BT64" s="19"/>
+      <c r="BU64" s="19"/>
+    </row>
+    <row r="65" spans="3:73">
+      <c r="C65" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="98"/>
-      <c r="E64" s="32" t="s">
+      <c r="D65" s="106"/>
+      <c r="E65" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="34"/>
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
-      <c r="Q64" s="34"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="34"/>
-      <c r="T64" s="34"/>
-      <c r="U64" s="34"/>
-      <c r="V64" s="34"/>
-      <c r="W64" s="34"/>
-      <c r="X64" s="34"/>
-      <c r="Y64" s="33"/>
-      <c r="Z64" s="32" t="s">
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="34"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="34"/>
+      <c r="U65" s="34"/>
+      <c r="V65" s="34"/>
+      <c r="W65" s="34"/>
+      <c r="X65" s="34"/>
+      <c r="Y65" s="33"/>
+      <c r="Z65" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="AA64" s="34"/>
-      <c r="AB64" s="34"/>
-      <c r="AC64" s="34"/>
-      <c r="AD64" s="34"/>
-      <c r="AE64" s="34"/>
-      <c r="AF64" s="34"/>
-      <c r="AG64" s="34"/>
-      <c r="AH64" s="34"/>
-      <c r="AI64" s="34"/>
-      <c r="AJ64" s="34"/>
-      <c r="AK64" s="34"/>
-      <c r="AL64" s="34"/>
-      <c r="AM64" s="34"/>
-      <c r="AN64" s="34"/>
-      <c r="AO64" s="34"/>
-      <c r="AP64" s="34"/>
-      <c r="AQ64" s="34"/>
-      <c r="AR64" s="34"/>
-      <c r="AS64" s="34"/>
-      <c r="AT64" s="34"/>
-      <c r="AU64" s="34"/>
-      <c r="AV64" s="34"/>
-      <c r="AW64" s="34"/>
-      <c r="AX64" s="34"/>
-      <c r="AY64" s="34"/>
-      <c r="AZ64" s="34"/>
-      <c r="BA64" s="34"/>
-      <c r="BB64" s="34"/>
-      <c r="BC64" s="34"/>
-      <c r="BD64" s="34"/>
-      <c r="BE64" s="33"/>
-      <c r="BF64" s="32" t="s">
+      <c r="AA65" s="34"/>
+      <c r="AB65" s="34"/>
+      <c r="AC65" s="34"/>
+      <c r="AD65" s="34"/>
+      <c r="AE65" s="34"/>
+      <c r="AF65" s="34"/>
+      <c r="AG65" s="34"/>
+      <c r="AH65" s="34"/>
+      <c r="AI65" s="34"/>
+      <c r="AJ65" s="34"/>
+      <c r="AK65" s="34"/>
+      <c r="AL65" s="34"/>
+      <c r="AM65" s="34"/>
+      <c r="AN65" s="34"/>
+      <c r="AO65" s="34"/>
+      <c r="AP65" s="34"/>
+      <c r="AQ65" s="34"/>
+      <c r="AR65" s="34"/>
+      <c r="AS65" s="34"/>
+      <c r="AT65" s="34"/>
+      <c r="AU65" s="34"/>
+      <c r="AV65" s="34"/>
+      <c r="AW65" s="34"/>
+      <c r="AX65" s="34"/>
+      <c r="AY65" s="34"/>
+      <c r="AZ65" s="34"/>
+      <c r="BA65" s="34"/>
+      <c r="BB65" s="34"/>
+      <c r="BC65" s="34"/>
+      <c r="BD65" s="34"/>
+      <c r="BE65" s="33"/>
+      <c r="BF65" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="BG64" s="34"/>
-      <c r="BH64" s="34"/>
-      <c r="BI64" s="34"/>
-      <c r="BJ64" s="34"/>
-      <c r="BK64" s="34"/>
-      <c r="BL64" s="34"/>
-      <c r="BM64" s="34"/>
-      <c r="BN64" s="34"/>
-      <c r="BO64" s="34"/>
-      <c r="BP64" s="34"/>
-      <c r="BQ64" s="34"/>
-      <c r="BR64" s="34"/>
-      <c r="BS64" s="34"/>
-      <c r="BT64" s="34"/>
-      <c r="BU64" s="33"/>
-    </row>
-    <row r="65" spans="3:73">
-      <c r="C65" s="81">
-        <f t="shared" ref="C65:C69" si="0">ROW()-ROW($C$64)</f>
+      <c r="BG65" s="34"/>
+      <c r="BH65" s="34"/>
+      <c r="BI65" s="34"/>
+      <c r="BJ65" s="34"/>
+      <c r="BK65" s="34"/>
+      <c r="BL65" s="34"/>
+      <c r="BM65" s="34"/>
+      <c r="BN65" s="34"/>
+      <c r="BO65" s="34"/>
+      <c r="BP65" s="34"/>
+      <c r="BQ65" s="34"/>
+      <c r="BR65" s="34"/>
+      <c r="BS65" s="34"/>
+      <c r="BT65" s="34"/>
+      <c r="BU65" s="33"/>
+    </row>
+    <row r="66" spans="3:73">
+      <c r="C66" s="90">
+        <f t="shared" ref="C66:C70" si="2">ROW()-ROW($C$65)</f>
         <v>1</v>
       </c>
-      <c r="D65" s="82"/>
-      <c r="E65" s="83" t="s">
+      <c r="D66" s="91"/>
+      <c r="E66" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="F66" s="93"/>
+      <c r="G66" s="93"/>
+      <c r="H66" s="93"/>
+      <c r="I66" s="93"/>
+      <c r="J66" s="93"/>
+      <c r="K66" s="93"/>
+      <c r="L66" s="93"/>
+      <c r="M66" s="93"/>
+      <c r="N66" s="93"/>
+      <c r="O66" s="93"/>
+      <c r="P66" s="93"/>
+      <c r="Q66" s="93"/>
+      <c r="R66" s="93"/>
+      <c r="S66" s="93"/>
+      <c r="T66" s="93"/>
+      <c r="U66" s="93"/>
+      <c r="V66" s="93"/>
+      <c r="W66" s="93"/>
+      <c r="X66" s="93"/>
+      <c r="Y66" s="94"/>
+      <c r="Z66" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="F65" s="84"/>
-      <c r="G65" s="84"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="84"/>
-      <c r="J65" s="84"/>
-      <c r="K65" s="84"/>
-      <c r="L65" s="84"/>
-      <c r="M65" s="84"/>
-      <c r="N65" s="84"/>
-      <c r="O65" s="84"/>
-      <c r="P65" s="84"/>
-      <c r="Q65" s="84"/>
-      <c r="R65" s="84"/>
-      <c r="S65" s="84"/>
-      <c r="T65" s="84"/>
-      <c r="U65" s="84"/>
-      <c r="V65" s="84"/>
-      <c r="W65" s="84"/>
-      <c r="X65" s="84"/>
-      <c r="Y65" s="85"/>
-      <c r="Z65" s="83" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA65" s="84"/>
-      <c r="AB65" s="84"/>
-      <c r="AC65" s="84"/>
-      <c r="AD65" s="84"/>
-      <c r="AE65" s="84"/>
-      <c r="AF65" s="84"/>
-      <c r="AG65" s="84"/>
-      <c r="AH65" s="84"/>
-      <c r="AI65" s="84"/>
-      <c r="AJ65" s="84"/>
-      <c r="AK65" s="84"/>
-      <c r="AL65" s="84"/>
-      <c r="AM65" s="84"/>
-      <c r="AN65" s="84"/>
-      <c r="AO65" s="84"/>
-      <c r="AP65" s="84"/>
-      <c r="AQ65" s="84"/>
-      <c r="AR65" s="84"/>
-      <c r="AS65" s="84"/>
-      <c r="AT65" s="84"/>
-      <c r="AU65" s="84"/>
-      <c r="AV65" s="84"/>
-      <c r="AW65" s="84"/>
-      <c r="AX65" s="84"/>
-      <c r="AY65" s="84"/>
-      <c r="AZ65" s="84"/>
-      <c r="BA65" s="84"/>
-      <c r="BB65" s="84"/>
-      <c r="BC65" s="84"/>
-      <c r="BD65" s="84"/>
-      <c r="BE65" s="85"/>
-      <c r="BF65" s="38"/>
-      <c r="BG65" s="39"/>
-      <c r="BH65" s="39"/>
-      <c r="BI65" s="39"/>
-      <c r="BJ65" s="39"/>
-      <c r="BK65" s="39"/>
-      <c r="BL65" s="39"/>
-      <c r="BM65" s="39"/>
-      <c r="BN65" s="39"/>
-      <c r="BO65" s="39"/>
-      <c r="BP65" s="39"/>
-      <c r="BQ65" s="39"/>
-      <c r="BR65" s="39"/>
-      <c r="BS65" s="39"/>
-      <c r="BT65" s="39"/>
-      <c r="BU65" s="40"/>
-    </row>
-    <row r="66" spans="3:73">
-      <c r="C66" s="81">
-        <f t="shared" si="0"/>
+      <c r="AA66" s="93"/>
+      <c r="AB66" s="93"/>
+      <c r="AC66" s="93"/>
+      <c r="AD66" s="93"/>
+      <c r="AE66" s="93"/>
+      <c r="AF66" s="93"/>
+      <c r="AG66" s="93"/>
+      <c r="AH66" s="93"/>
+      <c r="AI66" s="93"/>
+      <c r="AJ66" s="93"/>
+      <c r="AK66" s="93"/>
+      <c r="AL66" s="93"/>
+      <c r="AM66" s="93"/>
+      <c r="AN66" s="93"/>
+      <c r="AO66" s="93"/>
+      <c r="AP66" s="93"/>
+      <c r="AQ66" s="93"/>
+      <c r="AR66" s="93"/>
+      <c r="AS66" s="93"/>
+      <c r="AT66" s="93"/>
+      <c r="AU66" s="93"/>
+      <c r="AV66" s="93"/>
+      <c r="AW66" s="93"/>
+      <c r="AX66" s="93"/>
+      <c r="AY66" s="93"/>
+      <c r="AZ66" s="93"/>
+      <c r="BA66" s="93"/>
+      <c r="BB66" s="93"/>
+      <c r="BC66" s="93"/>
+      <c r="BD66" s="93"/>
+      <c r="BE66" s="94"/>
+      <c r="BF66" s="38"/>
+      <c r="BG66" s="39"/>
+      <c r="BH66" s="39"/>
+      <c r="BI66" s="39"/>
+      <c r="BJ66" s="39"/>
+      <c r="BK66" s="39"/>
+      <c r="BL66" s="39"/>
+      <c r="BM66" s="39"/>
+      <c r="BN66" s="39"/>
+      <c r="BO66" s="39"/>
+      <c r="BP66" s="39"/>
+      <c r="BQ66" s="39"/>
+      <c r="BR66" s="39"/>
+      <c r="BS66" s="39"/>
+      <c r="BT66" s="39"/>
+      <c r="BU66" s="40"/>
+    </row>
+    <row r="67" spans="3:73">
+      <c r="C67" s="90">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D66" s="82"/>
-      <c r="E66" s="83" t="s">
+      <c r="D67" s="91"/>
+      <c r="E67" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="F66" s="84"/>
-      <c r="G66" s="84"/>
-      <c r="H66" s="84"/>
-      <c r="I66" s="84"/>
-      <c r="J66" s="84"/>
-      <c r="K66" s="84"/>
-      <c r="L66" s="84"/>
-      <c r="M66" s="84"/>
-      <c r="N66" s="84"/>
-      <c r="O66" s="84"/>
-      <c r="P66" s="84"/>
-      <c r="Q66" s="84"/>
-      <c r="R66" s="84"/>
-      <c r="S66" s="84"/>
-      <c r="T66" s="84"/>
-      <c r="U66" s="84"/>
-      <c r="V66" s="84"/>
-      <c r="W66" s="84"/>
-      <c r="X66" s="84"/>
-      <c r="Y66" s="85"/>
-      <c r="Z66" s="83" t="s">
+      <c r="F67" s="93"/>
+      <c r="G67" s="93"/>
+      <c r="H67" s="93"/>
+      <c r="I67" s="93"/>
+      <c r="J67" s="93"/>
+      <c r="K67" s="93"/>
+      <c r="L67" s="93"/>
+      <c r="M67" s="93"/>
+      <c r="N67" s="93"/>
+      <c r="O67" s="93"/>
+      <c r="P67" s="93"/>
+      <c r="Q67" s="93"/>
+      <c r="R67" s="93"/>
+      <c r="S67" s="93"/>
+      <c r="T67" s="93"/>
+      <c r="U67" s="93"/>
+      <c r="V67" s="93"/>
+      <c r="W67" s="93"/>
+      <c r="X67" s="93"/>
+      <c r="Y67" s="94"/>
+      <c r="Z67" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="AA66" s="84"/>
-      <c r="AB66" s="84"/>
-      <c r="AC66" s="84"/>
-      <c r="AD66" s="84"/>
-      <c r="AE66" s="84"/>
-      <c r="AF66" s="84"/>
-      <c r="AG66" s="84"/>
-      <c r="AH66" s="84"/>
-      <c r="AI66" s="84"/>
-      <c r="AJ66" s="84"/>
-      <c r="AK66" s="84"/>
-      <c r="AL66" s="84"/>
-      <c r="AM66" s="84"/>
-      <c r="AN66" s="84"/>
-      <c r="AO66" s="84"/>
-      <c r="AP66" s="84"/>
-      <c r="AQ66" s="84"/>
-      <c r="AR66" s="84"/>
-      <c r="AS66" s="84"/>
-      <c r="AT66" s="84"/>
-      <c r="AU66" s="84"/>
-      <c r="AV66" s="84"/>
-      <c r="AW66" s="84"/>
-      <c r="AX66" s="84"/>
-      <c r="AY66" s="84"/>
-      <c r="AZ66" s="84"/>
-      <c r="BA66" s="84"/>
-      <c r="BB66" s="84"/>
-      <c r="BC66" s="84"/>
-      <c r="BD66" s="84"/>
-      <c r="BE66" s="85"/>
-      <c r="BF66" s="47"/>
-      <c r="BG66" s="51"/>
-      <c r="BH66" s="51"/>
-      <c r="BI66" s="51"/>
-      <c r="BJ66" s="51"/>
-      <c r="BK66" s="51"/>
-      <c r="BL66" s="51"/>
-      <c r="BM66" s="51"/>
-      <c r="BN66" s="51"/>
-      <c r="BO66" s="51"/>
-      <c r="BP66" s="51"/>
-      <c r="BQ66" s="51"/>
-      <c r="BR66" s="51"/>
-      <c r="BS66" s="51"/>
-      <c r="BT66" s="51"/>
-      <c r="BU66" s="48"/>
-    </row>
-    <row r="67" spans="3:73">
-      <c r="C67" s="81">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D67" s="82"/>
-      <c r="E67" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="F67" s="51"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="51"/>
-      <c r="I67" s="51"/>
-      <c r="J67" s="51"/>
-      <c r="K67" s="51"/>
-      <c r="L67" s="51"/>
-      <c r="M67" s="51"/>
-      <c r="N67" s="51"/>
-      <c r="O67" s="51"/>
-      <c r="P67" s="51"/>
-      <c r="Q67" s="51"/>
-      <c r="R67" s="51"/>
-      <c r="S67" s="51"/>
-      <c r="T67" s="51"/>
-      <c r="U67" s="51"/>
-      <c r="V67" s="51"/>
-      <c r="W67" s="51"/>
-      <c r="X67" s="51"/>
-      <c r="Y67" s="48"/>
-      <c r="Z67" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA67" s="51"/>
-      <c r="AB67" s="51"/>
-      <c r="AC67" s="51"/>
-      <c r="AD67" s="51"/>
-      <c r="AE67" s="51"/>
-      <c r="AF67" s="51"/>
-      <c r="AG67" s="51"/>
-      <c r="AH67" s="51"/>
-      <c r="AI67" s="51"/>
-      <c r="AJ67" s="51"/>
-      <c r="AK67" s="51"/>
-      <c r="AL67" s="51"/>
-      <c r="AM67" s="51"/>
-      <c r="AN67" s="51"/>
-      <c r="AO67" s="51"/>
-      <c r="AP67" s="51"/>
-      <c r="AQ67" s="51"/>
-      <c r="AR67" s="51"/>
-      <c r="AS67" s="51"/>
-      <c r="AT67" s="51"/>
-      <c r="AU67" s="51"/>
-      <c r="AV67" s="51"/>
-      <c r="AW67" s="51"/>
-      <c r="AX67" s="51"/>
-      <c r="AY67" s="51"/>
-      <c r="AZ67" s="51"/>
-      <c r="BA67" s="51"/>
-      <c r="BB67" s="51"/>
-      <c r="BC67" s="51"/>
-      <c r="BD67" s="51"/>
-      <c r="BE67" s="48"/>
+      <c r="AA67" s="93"/>
+      <c r="AB67" s="93"/>
+      <c r="AC67" s="93"/>
+      <c r="AD67" s="93"/>
+      <c r="AE67" s="93"/>
+      <c r="AF67" s="93"/>
+      <c r="AG67" s="93"/>
+      <c r="AH67" s="93"/>
+      <c r="AI67" s="93"/>
+      <c r="AJ67" s="93"/>
+      <c r="AK67" s="93"/>
+      <c r="AL67" s="93"/>
+      <c r="AM67" s="93"/>
+      <c r="AN67" s="93"/>
+      <c r="AO67" s="93"/>
+      <c r="AP67" s="93"/>
+      <c r="AQ67" s="93"/>
+      <c r="AR67" s="93"/>
+      <c r="AS67" s="93"/>
+      <c r="AT67" s="93"/>
+      <c r="AU67" s="93"/>
+      <c r="AV67" s="93"/>
+      <c r="AW67" s="93"/>
+      <c r="AX67" s="93"/>
+      <c r="AY67" s="93"/>
+      <c r="AZ67" s="93"/>
+      <c r="BA67" s="93"/>
+      <c r="BB67" s="93"/>
+      <c r="BC67" s="93"/>
+      <c r="BD67" s="93"/>
+      <c r="BE67" s="94"/>
       <c r="BF67" s="47"/>
       <c r="BG67" s="51"/>
       <c r="BH67" s="51"/>
@@ -7511,13 +7684,13 @@
       <c r="BU67" s="48"/>
     </row>
     <row r="68" spans="3:73">
-      <c r="C68" s="81">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D68" s="82"/>
+      <c r="C68" s="90">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D68" s="91"/>
       <c r="E68" s="47" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
@@ -7591,99 +7764,178 @@
       <c r="BU68" s="48"/>
     </row>
     <row r="69" spans="3:73">
-      <c r="C69" s="81">
-        <f t="shared" si="0"/>
+      <c r="C69" s="90">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D69" s="91"/>
+      <c r="E69" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
+      <c r="L69" s="51"/>
+      <c r="M69" s="51"/>
+      <c r="N69" s="51"/>
+      <c r="O69" s="51"/>
+      <c r="P69" s="51"/>
+      <c r="Q69" s="51"/>
+      <c r="R69" s="51"/>
+      <c r="S69" s="51"/>
+      <c r="T69" s="51"/>
+      <c r="U69" s="51"/>
+      <c r="V69" s="51"/>
+      <c r="W69" s="51"/>
+      <c r="X69" s="51"/>
+      <c r="Y69" s="48"/>
+      <c r="Z69" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA69" s="51"/>
+      <c r="AB69" s="51"/>
+      <c r="AC69" s="51"/>
+      <c r="AD69" s="51"/>
+      <c r="AE69" s="51"/>
+      <c r="AF69" s="51"/>
+      <c r="AG69" s="51"/>
+      <c r="AH69" s="51"/>
+      <c r="AI69" s="51"/>
+      <c r="AJ69" s="51"/>
+      <c r="AK69" s="51"/>
+      <c r="AL69" s="51"/>
+      <c r="AM69" s="51"/>
+      <c r="AN69" s="51"/>
+      <c r="AO69" s="51"/>
+      <c r="AP69" s="51"/>
+      <c r="AQ69" s="51"/>
+      <c r="AR69" s="51"/>
+      <c r="AS69" s="51"/>
+      <c r="AT69" s="51"/>
+      <c r="AU69" s="51"/>
+      <c r="AV69" s="51"/>
+      <c r="AW69" s="51"/>
+      <c r="AX69" s="51"/>
+      <c r="AY69" s="51"/>
+      <c r="AZ69" s="51"/>
+      <c r="BA69" s="51"/>
+      <c r="BB69" s="51"/>
+      <c r="BC69" s="51"/>
+      <c r="BD69" s="51"/>
+      <c r="BE69" s="48"/>
+      <c r="BF69" s="47"/>
+      <c r="BG69" s="51"/>
+      <c r="BH69" s="51"/>
+      <c r="BI69" s="51"/>
+      <c r="BJ69" s="51"/>
+      <c r="BK69" s="51"/>
+      <c r="BL69" s="51"/>
+      <c r="BM69" s="51"/>
+      <c r="BN69" s="51"/>
+      <c r="BO69" s="51"/>
+      <c r="BP69" s="51"/>
+      <c r="BQ69" s="51"/>
+      <c r="BR69" s="51"/>
+      <c r="BS69" s="51"/>
+      <c r="BT69" s="51"/>
+      <c r="BU69" s="48"/>
+    </row>
+    <row r="70" spans="3:73">
+      <c r="C70" s="90">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="D69" s="82"/>
-      <c r="E69" s="83" t="s">
+      <c r="D70" s="91"/>
+      <c r="E70" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="F69" s="84"/>
-      <c r="G69" s="84"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="84"/>
-      <c r="J69" s="84"/>
-      <c r="K69" s="84"/>
-      <c r="L69" s="84"/>
-      <c r="M69" s="84"/>
-      <c r="N69" s="84"/>
-      <c r="O69" s="84"/>
-      <c r="P69" s="84"/>
-      <c r="Q69" s="84"/>
-      <c r="R69" s="84"/>
-      <c r="S69" s="84"/>
-      <c r="T69" s="84"/>
-      <c r="U69" s="84"/>
-      <c r="V69" s="84"/>
-      <c r="W69" s="84"/>
-      <c r="X69" s="84"/>
-      <c r="Y69" s="85"/>
-      <c r="Z69" s="83" t="s">
+      <c r="F70" s="93"/>
+      <c r="G70" s="93"/>
+      <c r="H70" s="93"/>
+      <c r="I70" s="93"/>
+      <c r="J70" s="93"/>
+      <c r="K70" s="93"/>
+      <c r="L70" s="93"/>
+      <c r="M70" s="93"/>
+      <c r="N70" s="93"/>
+      <c r="O70" s="93"/>
+      <c r="P70" s="93"/>
+      <c r="Q70" s="93"/>
+      <c r="R70" s="93"/>
+      <c r="S70" s="93"/>
+      <c r="T70" s="93"/>
+      <c r="U70" s="93"/>
+      <c r="V70" s="93"/>
+      <c r="W70" s="93"/>
+      <c r="X70" s="93"/>
+      <c r="Y70" s="94"/>
+      <c r="Z70" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="AA69" s="84"/>
-      <c r="AB69" s="84"/>
-      <c r="AC69" s="84"/>
-      <c r="AD69" s="84"/>
-      <c r="AE69" s="84"/>
-      <c r="AF69" s="84"/>
-      <c r="AG69" s="84"/>
-      <c r="AH69" s="84"/>
-      <c r="AI69" s="84"/>
-      <c r="AJ69" s="84"/>
-      <c r="AK69" s="84"/>
-      <c r="AL69" s="84"/>
-      <c r="AM69" s="84"/>
-      <c r="AN69" s="84"/>
-      <c r="AO69" s="84"/>
-      <c r="AP69" s="84"/>
-      <c r="AQ69" s="84"/>
-      <c r="AR69" s="84"/>
-      <c r="AS69" s="84"/>
-      <c r="AT69" s="84"/>
-      <c r="AU69" s="84"/>
-      <c r="AV69" s="84"/>
-      <c r="AW69" s="84"/>
-      <c r="AX69" s="84"/>
-      <c r="AY69" s="84"/>
-      <c r="AZ69" s="84"/>
-      <c r="BA69" s="84"/>
-      <c r="BB69" s="84"/>
-      <c r="BC69" s="84"/>
-      <c r="BD69" s="84"/>
-      <c r="BE69" s="85"/>
-      <c r="BF69" s="41" t="s">
+      <c r="AA70" s="93"/>
+      <c r="AB70" s="93"/>
+      <c r="AC70" s="93"/>
+      <c r="AD70" s="93"/>
+      <c r="AE70" s="93"/>
+      <c r="AF70" s="93"/>
+      <c r="AG70" s="93"/>
+      <c r="AH70" s="93"/>
+      <c r="AI70" s="93"/>
+      <c r="AJ70" s="93"/>
+      <c r="AK70" s="93"/>
+      <c r="AL70" s="93"/>
+      <c r="AM70" s="93"/>
+      <c r="AN70" s="93"/>
+      <c r="AO70" s="93"/>
+      <c r="AP70" s="93"/>
+      <c r="AQ70" s="93"/>
+      <c r="AR70" s="93"/>
+      <c r="AS70" s="93"/>
+      <c r="AT70" s="93"/>
+      <c r="AU70" s="93"/>
+      <c r="AV70" s="93"/>
+      <c r="AW70" s="93"/>
+      <c r="AX70" s="93"/>
+      <c r="AY70" s="93"/>
+      <c r="AZ70" s="93"/>
+      <c r="BA70" s="93"/>
+      <c r="BB70" s="93"/>
+      <c r="BC70" s="93"/>
+      <c r="BD70" s="93"/>
+      <c r="BE70" s="94"/>
+      <c r="BF70" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="BG69" s="42"/>
-      <c r="BH69" s="42"/>
-      <c r="BI69" s="42"/>
-      <c r="BJ69" s="42"/>
-      <c r="BK69" s="42"/>
-      <c r="BL69" s="42"/>
-      <c r="BM69" s="42"/>
-      <c r="BN69" s="42"/>
-      <c r="BO69" s="42"/>
-      <c r="BP69" s="42"/>
-      <c r="BQ69" s="42"/>
-      <c r="BR69" s="42"/>
-      <c r="BS69" s="42"/>
-      <c r="BT69" s="42"/>
-      <c r="BU69" s="43"/>
+      <c r="BG70" s="42"/>
+      <c r="BH70" s="42"/>
+      <c r="BI70" s="42"/>
+      <c r="BJ70" s="42"/>
+      <c r="BK70" s="42"/>
+      <c r="BL70" s="42"/>
+      <c r="BM70" s="42"/>
+      <c r="BN70" s="42"/>
+      <c r="BO70" s="42"/>
+      <c r="BP70" s="42"/>
+      <c r="BQ70" s="42"/>
+      <c r="BR70" s="42"/>
+      <c r="BS70" s="42"/>
+      <c r="BT70" s="42"/>
+      <c r="BU70" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="93">
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:Y66"/>
-    <mergeCell ref="Z66:BE66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="N58:AE58"/>
+  <mergeCells count="95">
     <mergeCell ref="AF58:AN58"/>
     <mergeCell ref="AO58:AS58"/>
     <mergeCell ref="AX57:BC57"/>
     <mergeCell ref="BD57:BE57"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:Y67"/>
+    <mergeCell ref="Z67:BE67"/>
+    <mergeCell ref="C68:D68"/>
     <mergeCell ref="AF59:AN59"/>
     <mergeCell ref="AO59:AS59"/>
     <mergeCell ref="BF48:BU48"/>
@@ -7700,20 +7952,20 @@
     <mergeCell ref="BD58:BE58"/>
     <mergeCell ref="AT48:AW48"/>
     <mergeCell ref="AT49:AW49"/>
+    <mergeCell ref="AX61:BC61"/>
     <mergeCell ref="AT53:AW53"/>
     <mergeCell ref="AT58:AW58"/>
     <mergeCell ref="AX48:BC48"/>
     <mergeCell ref="AX49:BC49"/>
     <mergeCell ref="AX53:BC53"/>
     <mergeCell ref="AX58:BC58"/>
-    <mergeCell ref="BD48:BE48"/>
-    <mergeCell ref="C64:D64"/>
     <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
     <mergeCell ref="E48:M48"/>
     <mergeCell ref="E58:M58"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E65:Y65"/>
+    <mergeCell ref="E66:Y66"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="N59:AE59"/>
     <mergeCell ref="N48:AE48"/>
@@ -7721,10 +7973,10 @@
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="N53:AE53"/>
     <mergeCell ref="N49:AE49"/>
-    <mergeCell ref="AX60:BC60"/>
-    <mergeCell ref="BD60:BE60"/>
-    <mergeCell ref="BF60:BU60"/>
-    <mergeCell ref="Z65:BE65"/>
+    <mergeCell ref="N58:AE58"/>
+    <mergeCell ref="BD61:BE61"/>
+    <mergeCell ref="BF61:BU61"/>
+    <mergeCell ref="Z66:BE66"/>
     <mergeCell ref="N50:AE50"/>
     <mergeCell ref="AF50:AN50"/>
     <mergeCell ref="AO50:AS50"/>
@@ -7737,11 +7989,12 @@
     <mergeCell ref="AO57:AS57"/>
     <mergeCell ref="AT57:AW57"/>
     <mergeCell ref="BF58:BU58"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="N60:AE60"/>
-    <mergeCell ref="AF60:AN60"/>
-    <mergeCell ref="AO60:AS60"/>
     <mergeCell ref="AT60:AW60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="N61:AE61"/>
+    <mergeCell ref="AF61:AN61"/>
+    <mergeCell ref="AO61:AS61"/>
+    <mergeCell ref="AT61:AW61"/>
     <mergeCell ref="BQ15:BS15"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
@@ -7752,28 +8005,30 @@
     <mergeCell ref="K36:M36"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:Y69"/>
-    <mergeCell ref="Z69:BE69"/>
+    <mergeCell ref="BD48:BE48"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:Y70"/>
+    <mergeCell ref="Z70:BE70"/>
     <mergeCell ref="BF57:BU57"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="N61:AE61"/>
-    <mergeCell ref="AF61:AN61"/>
-    <mergeCell ref="AO61:AS61"/>
-    <mergeCell ref="AT61:AW61"/>
-    <mergeCell ref="AX61:BC61"/>
-    <mergeCell ref="BD61:BE61"/>
-    <mergeCell ref="BF61:BU61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="N62:AE62"/>
+    <mergeCell ref="AF62:AN62"/>
+    <mergeCell ref="AO62:AS62"/>
+    <mergeCell ref="AT62:AW62"/>
+    <mergeCell ref="AX62:BC62"/>
+    <mergeCell ref="BD62:BE62"/>
+    <mergeCell ref="BF62:BU62"/>
     <mergeCell ref="AT59:AW59"/>
     <mergeCell ref="AX59:BC59"/>
     <mergeCell ref="BF59:BU59"/>
+    <mergeCell ref="C60:D60"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="44" max="73" man="1"/>
-    <brk id="62" max="73" man="1"/>
+    <brk id="63" max="73" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
